--- a/Code/Results/Cases/Case_4_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_32/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.004563543934643</v>
+      </c>
+      <c r="D2">
+        <v>1.019226100652296</v>
+      </c>
+      <c r="E2">
+        <v>1.012708577255827</v>
+      </c>
+      <c r="F2">
+        <v>0.9816598927262663</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.041467191940433</v>
+      </c>
+      <c r="J2">
+        <v>1.026608611703448</v>
+      </c>
+      <c r="K2">
+        <v>1.0304239289888</v>
+      </c>
+      <c r="L2">
+        <v>1.023993655735641</v>
+      </c>
+      <c r="M2">
+        <v>0.9933807889737317</v>
+      </c>
+      <c r="N2">
+        <v>1.02806651368572</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.012344860378757</v>
+      </c>
+      <c r="D3">
+        <v>1.025057684721291</v>
+      </c>
+      <c r="E3">
+        <v>1.019972017749971</v>
+      </c>
+      <c r="F3">
+        <v>0.9922479967323881</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.044366266873247</v>
+      </c>
+      <c r="J3">
+        <v>1.032504557194062</v>
+      </c>
+      <c r="K3">
+        <v>1.035379680581098</v>
+      </c>
+      <c r="L3">
+        <v>1.030355574580012</v>
+      </c>
+      <c r="M3">
+        <v>1.002981036320323</v>
+      </c>
+      <c r="N3">
+        <v>1.033970832095205</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.017208732980205</v>
+      </c>
+      <c r="D4">
+        <v>1.028705308364546</v>
+      </c>
+      <c r="E4">
+        <v>1.024517142003351</v>
+      </c>
+      <c r="F4">
+        <v>0.9988554966411582</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.046165391403782</v>
+      </c>
+      <c r="J4">
+        <v>1.036182251288161</v>
+      </c>
+      <c r="K4">
+        <v>1.038469202953791</v>
+      </c>
+      <c r="L4">
+        <v>1.034328404557341</v>
+      </c>
+      <c r="M4">
+        <v>1.008967754465211</v>
+      </c>
+      <c r="N4">
+        <v>1.037653748936755</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.019215127631415</v>
+      </c>
+      <c r="D5">
+        <v>1.030210469977129</v>
+      </c>
+      <c r="E5">
+        <v>1.026393181660476</v>
+      </c>
+      <c r="F5">
+        <v>1.001579107328512</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.046904378099223</v>
+      </c>
+      <c r="J5">
+        <v>1.037697466542026</v>
+      </c>
+      <c r="K5">
+        <v>1.039741644013298</v>
+      </c>
+      <c r="L5">
+        <v>1.035966283040569</v>
+      </c>
+      <c r="M5">
+        <v>1.011434388426036</v>
+      </c>
+      <c r="N5">
+        <v>1.039171115970078</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.019549830389689</v>
+      </c>
+      <c r="D6">
+        <v>1.030461583264983</v>
+      </c>
+      <c r="E6">
+        <v>1.026706203819057</v>
+      </c>
+      <c r="F6">
+        <v>1.002033348993744</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.047027466510359</v>
+      </c>
+      <c r="J6">
+        <v>1.037950121055841</v>
+      </c>
+      <c r="K6">
+        <v>1.039953789866168</v>
+      </c>
+      <c r="L6">
+        <v>1.036239453611905</v>
+      </c>
+      <c r="M6">
+        <v>1.0118457060384</v>
+      </c>
+      <c r="N6">
+        <v>1.039424129282284</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.017235690078566</v>
+      </c>
+      <c r="D7">
+        <v>1.028725529335071</v>
+      </c>
+      <c r="E7">
+        <v>1.024542343295748</v>
+      </c>
+      <c r="F7">
+        <v>0.9988920973914807</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.046175332748344</v>
+      </c>
+      <c r="J7">
+        <v>1.036202616538543</v>
+      </c>
+      <c r="K7">
+        <v>1.038486307014028</v>
+      </c>
+      <c r="L7">
+        <v>1.034350414243036</v>
+      </c>
+      <c r="M7">
+        <v>1.009000906271436</v>
+      </c>
+      <c r="N7">
+        <v>1.03767414310813</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.007230366486436</v>
+      </c>
+      <c r="D8">
+        <v>1.02122411362742</v>
+      </c>
+      <c r="E8">
+        <v>1.015196824907406</v>
+      </c>
+      <c r="F8">
+        <v>0.9852913093387263</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.042463487701335</v>
+      </c>
+      <c r="J8">
+        <v>1.028630890132211</v>
+      </c>
+      <c r="K8">
+        <v>1.032124065126005</v>
+      </c>
+      <c r="L8">
+        <v>1.026174806216802</v>
+      </c>
+      <c r="M8">
+        <v>0.9966742755361258</v>
+      </c>
+      <c r="N8">
+        <v>1.030091663981811</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9881560345682742</v>
+      </c>
+      <c r="D9">
+        <v>1.006949426131475</v>
+      </c>
+      <c r="E9">
+        <v>0.9974241503538809</v>
+      </c>
+      <c r="F9">
+        <v>0.9592433018016235</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.035282973207169</v>
+      </c>
+      <c r="J9">
+        <v>1.014134079871225</v>
+      </c>
+      <c r="K9">
+        <v>1.019930751051965</v>
+      </c>
+      <c r="L9">
+        <v>1.010559157624312</v>
+      </c>
+      <c r="M9">
+        <v>0.9730341535500625</v>
+      </c>
+      <c r="N9">
+        <v>1.015574266587447</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9742525920458771</v>
+      </c>
+      <c r="D10">
+        <v>0.9965718314523438</v>
+      </c>
+      <c r="E10">
+        <v>0.9845044927165723</v>
+      </c>
+      <c r="F10">
+        <v>0.9401224113031318</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.029981385109729</v>
+      </c>
+      <c r="J10">
+        <v>1.003526351404952</v>
+      </c>
+      <c r="K10">
+        <v>1.011003259640955</v>
+      </c>
+      <c r="L10">
+        <v>0.9991592752939067</v>
+      </c>
+      <c r="M10">
+        <v>0.9556640231053175</v>
+      </c>
+      <c r="N10">
+        <v>1.004951473930028</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9678908052048434</v>
+      </c>
+      <c r="D11">
+        <v>0.9918323434331501</v>
+      </c>
+      <c r="E11">
+        <v>0.9786024851678646</v>
+      </c>
+      <c r="F11">
+        <v>0.9313261138791052</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.027540372587267</v>
+      </c>
+      <c r="J11">
+        <v>0.9986631788982695</v>
+      </c>
+      <c r="K11">
+        <v>1.006909951239096</v>
+      </c>
+      <c r="L11">
+        <v>0.9939395324783763</v>
+      </c>
+      <c r="M11">
+        <v>0.9476707319914889</v>
+      </c>
+      <c r="N11">
+        <v>1.000081395160573</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9654702413224334</v>
+      </c>
+      <c r="D12">
+        <v>0.990030631525272</v>
+      </c>
+      <c r="E12">
+        <v>0.9763584340200723</v>
+      </c>
+      <c r="F12">
+        <v>0.9279705416596274</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.026609412520252</v>
+      </c>
+      <c r="J12">
+        <v>0.9968114271060736</v>
+      </c>
+      <c r="K12">
+        <v>1.005351354132508</v>
+      </c>
+      <c r="L12">
+        <v>0.9919530314785195</v>
+      </c>
+      <c r="M12">
+        <v>0.9446212962521365</v>
+      </c>
+      <c r="N12">
+        <v>0.9982270136684332</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9659921749507275</v>
+      </c>
+      <c r="D13">
+        <v>0.9904190493142331</v>
+      </c>
+      <c r="E13">
+        <v>0.9768422339680831</v>
+      </c>
+      <c r="F13">
+        <v>0.9286945089159934</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.026810247942375</v>
+      </c>
+      <c r="J13">
+        <v>0.9972107729663476</v>
+      </c>
+      <c r="K13">
+        <v>1.005687476694132</v>
+      </c>
+      <c r="L13">
+        <v>0.9923813904828961</v>
+      </c>
+      <c r="M13">
+        <v>0.9452792198082814</v>
+      </c>
+      <c r="N13">
+        <v>0.9986269266456343</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9676919337567271</v>
+      </c>
+      <c r="D14">
+        <v>0.9916842826089589</v>
+      </c>
+      <c r="E14">
+        <v>0.9784180832196298</v>
+      </c>
+      <c r="F14">
+        <v>0.931050609860241</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.02746392953843</v>
+      </c>
+      <c r="J14">
+        <v>0.9985110685287617</v>
+      </c>
+      <c r="K14">
+        <v>1.006781921004158</v>
+      </c>
+      <c r="L14">
+        <v>0.9937763323775964</v>
+      </c>
+      <c r="M14">
+        <v>0.9474203655828061</v>
+      </c>
+      <c r="N14">
+        <v>0.9999290687768927</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9687313857120178</v>
+      </c>
+      <c r="D15">
+        <v>0.9924582260450623</v>
+      </c>
+      <c r="E15">
+        <v>0.9793819712763078</v>
+      </c>
+      <c r="F15">
+        <v>0.9324902374737664</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.02786339014627</v>
+      </c>
+      <c r="J15">
+        <v>0.9993060557228635</v>
+      </c>
+      <c r="K15">
+        <v>1.00745105721765</v>
+      </c>
+      <c r="L15">
+        <v>0.994629320404917</v>
+      </c>
+      <c r="M15">
+        <v>0.9487286316906243</v>
+      </c>
+      <c r="N15">
+        <v>1.000725184943997</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.97466710254556</v>
+      </c>
+      <c r="D16">
+        <v>0.996880843500134</v>
+      </c>
+      <c r="E16">
+        <v>0.9848892543035511</v>
+      </c>
+      <c r="F16">
+        <v>0.9406944452811521</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.030140127137114</v>
+      </c>
+      <c r="J16">
+        <v>1.003843026195334</v>
+      </c>
+      <c r="K16">
+        <v>1.011269800488816</v>
+      </c>
+      <c r="L16">
+        <v>0.9994993070693835</v>
+      </c>
+      <c r="M16">
+        <v>0.9561838006246246</v>
+      </c>
+      <c r="N16">
+        <v>1.005268598434936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9782949386234762</v>
+      </c>
+      <c r="D17">
+        <v>0.9995863797278155</v>
+      </c>
+      <c r="E17">
+        <v>0.9882578185747452</v>
+      </c>
+      <c r="F17">
+        <v>0.9456954939715571</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.03152776116345</v>
+      </c>
+      <c r="J17">
+        <v>1.006613543507206</v>
+      </c>
+      <c r="K17">
+        <v>1.013601665094453</v>
+      </c>
+      <c r="L17">
+        <v>1.002474911563643</v>
+      </c>
+      <c r="M17">
+        <v>0.9607277409027734</v>
+      </c>
+      <c r="N17">
+        <v>1.008043050199174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9803785154778519</v>
+      </c>
+      <c r="D18">
+        <v>1.001141072558477</v>
+      </c>
+      <c r="E18">
+        <v>0.9901933774555403</v>
+      </c>
+      <c r="F18">
+        <v>0.9485634667116625</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.032323300173361</v>
+      </c>
+      <c r="J18">
+        <v>1.00820385717627</v>
+      </c>
+      <c r="K18">
+        <v>1.014940138629858</v>
+      </c>
+      <c r="L18">
+        <v>1.004183560616312</v>
+      </c>
+      <c r="M18">
+        <v>0.9633333374524242</v>
+      </c>
+      <c r="N18">
+        <v>1.009635622296059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9810836236509275</v>
+      </c>
+      <c r="D19">
+        <v>1.001667332453386</v>
+      </c>
+      <c r="E19">
+        <v>0.9908485419571944</v>
+      </c>
+      <c r="F19">
+        <v>0.9495333404804299</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.032592276849461</v>
+      </c>
+      <c r="J19">
+        <v>1.008741889135888</v>
+      </c>
+      <c r="K19">
+        <v>1.015392958231592</v>
+      </c>
+      <c r="L19">
+        <v>1.004761730692822</v>
+      </c>
+      <c r="M19">
+        <v>0.9642144378840608</v>
+      </c>
+      <c r="N19">
+        <v>1.010174418322773</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9779091069537335</v>
+      </c>
+      <c r="D20">
+        <v>0.9992985504981043</v>
+      </c>
+      <c r="E20">
+        <v>0.9878994678488699</v>
+      </c>
+      <c r="F20">
+        <v>0.9451640728194636</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.031380329282957</v>
+      </c>
+      <c r="J20">
+        <v>1.006318981625109</v>
+      </c>
+      <c r="K20">
+        <v>1.013353745273766</v>
+      </c>
+      <c r="L20">
+        <v>1.00215848082172</v>
+      </c>
+      <c r="M20">
+        <v>0.9602449164892075</v>
+      </c>
+      <c r="N20">
+        <v>1.007748070005417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9671930402283401</v>
+      </c>
+      <c r="D21">
+        <v>0.9913128802293298</v>
+      </c>
+      <c r="E21">
+        <v>0.9779555139406763</v>
+      </c>
+      <c r="F21">
+        <v>0.9303593280392587</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.027272127852908</v>
+      </c>
+      <c r="J21">
+        <v>0.9981294587165257</v>
+      </c>
+      <c r="K21">
+        <v>1.006460723201286</v>
+      </c>
+      <c r="L21">
+        <v>0.9933669175167918</v>
+      </c>
+      <c r="M21">
+        <v>0.9467921554619482</v>
+      </c>
+      <c r="N21">
+        <v>0.999546917034952</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9601187230618972</v>
+      </c>
+      <c r="D22">
+        <v>0.9860505479485392</v>
+      </c>
+      <c r="E22">
+        <v>0.9714002250868481</v>
+      </c>
+      <c r="F22">
+        <v>0.9205336129234692</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.024547245446927</v>
+      </c>
+      <c r="J22">
+        <v>0.9927149273816022</v>
+      </c>
+      <c r="K22">
+        <v>1.00190350539507</v>
+      </c>
+      <c r="L22">
+        <v>0.9875603673714284</v>
+      </c>
+      <c r="M22">
+        <v>0.9378627259618745</v>
+      </c>
+      <c r="N22">
+        <v>0.9941246964444779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9639032478185193</v>
+      </c>
+      <c r="D23">
+        <v>0.9888647444748809</v>
+      </c>
+      <c r="E23">
+        <v>0.974906170043042</v>
+      </c>
+      <c r="F23">
+        <v>0.9257955629068177</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.026006133245041</v>
+      </c>
+      <c r="J23">
+        <v>0.995612275205639</v>
+      </c>
+      <c r="K23">
+        <v>1.004342057415238</v>
+      </c>
+      <c r="L23">
+        <v>0.9906669118369057</v>
+      </c>
+      <c r="M23">
+        <v>0.9426447165880342</v>
+      </c>
+      <c r="N23">
+        <v>0.9970261588347552</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9780835475911517</v>
+      </c>
+      <c r="D24">
+        <v>0.9994286801371304</v>
+      </c>
+      <c r="E24">
+        <v>0.9880614811560905</v>
+      </c>
+      <c r="F24">
+        <v>0.9454043499850302</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.031446990010016</v>
+      </c>
+      <c r="J24">
+        <v>1.006452160474951</v>
+      </c>
+      <c r="K24">
+        <v>1.013465836226307</v>
+      </c>
+      <c r="L24">
+        <v>1.002301545230374</v>
+      </c>
+      <c r="M24">
+        <v>0.9604632218353935</v>
+      </c>
+      <c r="N24">
+        <v>1.007881437984502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9932786716323745</v>
+      </c>
+      <c r="D25">
+        <v>1.010779167771777</v>
+      </c>
+      <c r="E25">
+        <v>1.002191688764053</v>
+      </c>
+      <c r="F25">
+        <v>0.9662572585174539</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.037223072946212</v>
+      </c>
+      <c r="J25">
+        <v>1.018034372023555</v>
+      </c>
+      <c r="K25">
+        <v>1.023212424214929</v>
+      </c>
+      <c r="L25">
+        <v>1.014756076596635</v>
+      </c>
+      <c r="M25">
+        <v>0.9794029917542295</v>
+      </c>
+      <c r="N25">
+        <v>1.019480097602003</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_32/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004563543934643</v>
+        <v>1.047872834555001</v>
       </c>
       <c r="D2">
-        <v>1.019226100652296</v>
+        <v>1.046888489374791</v>
       </c>
       <c r="E2">
-        <v>1.012708577255827</v>
+        <v>1.051543531943921</v>
       </c>
       <c r="F2">
-        <v>0.9816598927262663</v>
+        <v>1.046749836017703</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041467191940433</v>
+        <v>1.042026306375352</v>
       </c>
       <c r="J2">
-        <v>1.026608611703448</v>
+        <v>1.052919589952319</v>
       </c>
       <c r="K2">
-        <v>1.0304239289888</v>
+        <v>1.049652664333931</v>
       </c>
       <c r="L2">
-        <v>1.023993655735641</v>
+        <v>1.054294741769581</v>
       </c>
       <c r="M2">
-        <v>0.9933807889737317</v>
+        <v>1.04951439906931</v>
       </c>
       <c r="N2">
-        <v>1.02806651368572</v>
+        <v>1.054414856541616</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012344860378757</v>
+        <v>1.049344227391863</v>
       </c>
       <c r="D3">
-        <v>1.025057684721291</v>
+        <v>1.047995766124216</v>
       </c>
       <c r="E3">
-        <v>1.019972017749971</v>
+        <v>1.052965283923206</v>
       </c>
       <c r="F3">
-        <v>0.9922479967323881</v>
+        <v>1.048847537169125</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044366266873247</v>
+        <v>1.042488008664078</v>
       </c>
       <c r="J3">
-        <v>1.032504557194062</v>
+        <v>1.054037069076656</v>
       </c>
       <c r="K3">
-        <v>1.035379680581098</v>
+        <v>1.0505709073597</v>
       </c>
       <c r="L3">
-        <v>1.030355574580012</v>
+        <v>1.055527595626825</v>
       </c>
       <c r="M3">
-        <v>1.002981036320323</v>
+        <v>1.051420470117733</v>
       </c>
       <c r="N3">
-        <v>1.033970832095205</v>
+        <v>1.055533922614486</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017208732980205</v>
+        <v>1.05029399537022</v>
       </c>
       <c r="D4">
-        <v>1.028705308364546</v>
+        <v>1.048710217396566</v>
       </c>
       <c r="E4">
-        <v>1.024517142003351</v>
+        <v>1.053883294080731</v>
       </c>
       <c r="F4">
-        <v>0.9988554966411582</v>
+        <v>1.050202220319866</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046165391403782</v>
+        <v>1.04278437326281</v>
       </c>
       <c r="J4">
-        <v>1.036182251288161</v>
+        <v>1.054757430456878</v>
       </c>
       <c r="K4">
-        <v>1.038469202953791</v>
+        <v>1.051162458568309</v>
       </c>
       <c r="L4">
-        <v>1.034328404557341</v>
+        <v>1.056322859395637</v>
       </c>
       <c r="M4">
-        <v>1.008967754465211</v>
+        <v>1.052650791776003</v>
       </c>
       <c r="N4">
-        <v>1.037653748936755</v>
+        <v>1.056255306990495</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019215127631415</v>
+        <v>1.050692732305291</v>
       </c>
       <c r="D5">
-        <v>1.030210469977129</v>
+        <v>1.049010093383707</v>
       </c>
       <c r="E5">
-        <v>1.026393181660476</v>
+        <v>1.054268765998191</v>
       </c>
       <c r="F5">
-        <v>1.001579107328512</v>
+        <v>1.050771109384476</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046904378099223</v>
+        <v>1.042908397068182</v>
       </c>
       <c r="J5">
-        <v>1.037697466542026</v>
+        <v>1.055059626824334</v>
       </c>
       <c r="K5">
-        <v>1.039741644013298</v>
+        <v>1.051410527589777</v>
       </c>
       <c r="L5">
-        <v>1.035966283040569</v>
+        <v>1.056656604366423</v>
       </c>
       <c r="M5">
-        <v>1.011434388426036</v>
+        <v>1.053167310434213</v>
       </c>
       <c r="N5">
-        <v>1.039171115970078</v>
+        <v>1.056557932511455</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.019549830389689</v>
+        <v>1.050759650298206</v>
       </c>
       <c r="D6">
-        <v>1.030461583264983</v>
+        <v>1.049060415971461</v>
       </c>
       <c r="E6">
-        <v>1.026706203819057</v>
+        <v>1.054333461749694</v>
       </c>
       <c r="F6">
-        <v>1.002033348993744</v>
+        <v>1.050866592581346</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047027466510359</v>
+        <v>1.042929188018482</v>
       </c>
       <c r="J6">
-        <v>1.037950121055841</v>
+        <v>1.055110329421878</v>
       </c>
       <c r="K6">
-        <v>1.039953789866168</v>
+        <v>1.051452143354615</v>
       </c>
       <c r="L6">
-        <v>1.036239453611905</v>
+        <v>1.056712607623688</v>
       </c>
       <c r="M6">
-        <v>1.0118457060384</v>
+        <v>1.053253995151153</v>
       </c>
       <c r="N6">
-        <v>1.039424129282284</v>
+        <v>1.056608707112503</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017235690078566</v>
+        <v>1.050299325443566</v>
       </c>
       <c r="D7">
-        <v>1.028725529335071</v>
+        <v>1.048714226229198</v>
       </c>
       <c r="E7">
-        <v>1.024542343295748</v>
+        <v>1.053888446569648</v>
       </c>
       <c r="F7">
-        <v>0.9988920973914807</v>
+        <v>1.05020982425467</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046175332748344</v>
+        <v>1.042786032701737</v>
       </c>
       <c r="J7">
-        <v>1.036202616538543</v>
+        <v>1.054761470938235</v>
       </c>
       <c r="K7">
-        <v>1.038486307014028</v>
+        <v>1.051165775703345</v>
       </c>
       <c r="L7">
-        <v>1.034350414243036</v>
+        <v>1.05632732119607</v>
       </c>
       <c r="M7">
-        <v>1.009000906271436</v>
+        <v>1.052657696286028</v>
       </c>
       <c r="N7">
-        <v>1.03767414310813</v>
+        <v>1.056259353209799</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007230366486436</v>
+        <v>1.048370585555703</v>
       </c>
       <c r="D8">
-        <v>1.02122411362742</v>
+        <v>1.047263123378116</v>
       </c>
       <c r="E8">
-        <v>1.015196824907406</v>
+        <v>1.052024430813081</v>
       </c>
       <c r="F8">
-        <v>0.9852913093387263</v>
+        <v>1.047459328467891</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042463487701335</v>
+        <v>1.042182837465354</v>
       </c>
       <c r="J8">
-        <v>1.028630890132211</v>
+        <v>1.053297815874781</v>
       </c>
       <c r="K8">
-        <v>1.032124065126005</v>
+        <v>1.049963533954241</v>
       </c>
       <c r="L8">
-        <v>1.026174806216802</v>
+        <v>1.054711908208445</v>
       </c>
       <c r="M8">
-        <v>0.9966742755361258</v>
+        <v>1.050159203575695</v>
       </c>
       <c r="N8">
-        <v>1.030091663981811</v>
+        <v>1.054793619588271</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9881560345682742</v>
+        <v>1.044953656230705</v>
       </c>
       <c r="D9">
-        <v>1.006949426131475</v>
+        <v>1.044690231555894</v>
       </c>
       <c r="E9">
-        <v>0.9974241503538809</v>
+        <v>1.048724378137043</v>
       </c>
       <c r="F9">
-        <v>0.9592433018016235</v>
+        <v>1.042591281839346</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035282973207169</v>
+        <v>1.041101475051429</v>
       </c>
       <c r="J9">
-        <v>1.014134079871225</v>
+        <v>1.050697450035466</v>
       </c>
       <c r="K9">
-        <v>1.019930751051965</v>
+        <v>1.047824718867227</v>
       </c>
       <c r="L9">
-        <v>1.010559157624312</v>
+        <v>1.05184599851778</v>
       </c>
       <c r="M9">
-        <v>0.9730341535500625</v>
+        <v>1.045732506870338</v>
       </c>
       <c r="N9">
-        <v>1.015574266587447</v>
+        <v>1.052189560931198</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9742525920458771</v>
+        <v>1.042662787026061</v>
       </c>
       <c r="D10">
-        <v>0.9965718314523438</v>
+        <v>1.042963868471546</v>
       </c>
       <c r="E10">
-        <v>0.9845044927165723</v>
+        <v>1.046513386140269</v>
       </c>
       <c r="F10">
-        <v>0.9401224113031318</v>
+        <v>1.039330355189932</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029981385109729</v>
+        <v>1.040367920446134</v>
       </c>
       <c r="J10">
-        <v>1.003526351404952</v>
+        <v>1.048949087565126</v>
       </c>
       <c r="K10">
-        <v>1.011003259640955</v>
+        <v>1.046384769095094</v>
       </c>
       <c r="L10">
-        <v>0.9991592752939067</v>
+        <v>1.049921837428482</v>
       </c>
       <c r="M10">
-        <v>0.9556640231053175</v>
+        <v>1.042764096845558</v>
       </c>
       <c r="N10">
-        <v>1.004951473930028</v>
+        <v>1.050438715585611</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9678908052048434</v>
+        <v>1.041667605970281</v>
       </c>
       <c r="D11">
-        <v>0.9918323434331501</v>
+        <v>1.042213602826281</v>
       </c>
       <c r="E11">
-        <v>0.9786024851678646</v>
+        <v>1.045553270964612</v>
       </c>
       <c r="F11">
-        <v>0.9313261138791052</v>
+        <v>1.03791437269429</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027540372587267</v>
+        <v>1.040047230088561</v>
       </c>
       <c r="J11">
-        <v>0.9986631788982695</v>
+        <v>1.048188403951734</v>
       </c>
       <c r="K11">
-        <v>1.006909951239096</v>
+        <v>1.045757823341036</v>
       </c>
       <c r="L11">
-        <v>0.9939395324783763</v>
+        <v>1.049085316539662</v>
       </c>
       <c r="M11">
-        <v>0.9476707319914889</v>
+        <v>1.041474393829656</v>
       </c>
       <c r="N11">
-        <v>1.000081395160573</v>
+        <v>1.049676951714236</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9654702413224334</v>
+        <v>1.041297455044862</v>
       </c>
       <c r="D12">
-        <v>0.990030631525272</v>
+        <v>1.041934500686957</v>
       </c>
       <c r="E12">
-        <v>0.9763584340200723</v>
+        <v>1.045196218115678</v>
       </c>
       <c r="F12">
-        <v>0.9279705416596274</v>
+        <v>1.037387792144943</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026609412520252</v>
+        <v>1.039927647533707</v>
       </c>
       <c r="J12">
-        <v>0.9968114271060736</v>
+        <v>1.047905296509828</v>
       </c>
       <c r="K12">
-        <v>1.005351354132508</v>
+        <v>1.045524423080515</v>
       </c>
       <c r="L12">
-        <v>0.9919530314785195</v>
+        <v>1.048774081974724</v>
       </c>
       <c r="M12">
-        <v>0.9446212962521365</v>
+        <v>1.040994663723439</v>
       </c>
       <c r="N12">
-        <v>0.9982270136684332</v>
+        <v>1.04939344222729</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9659921749507275</v>
+        <v>1.041376876341529</v>
       </c>
       <c r="D13">
-        <v>0.9904190493142331</v>
+        <v>1.041994388191032</v>
       </c>
       <c r="E13">
-        <v>0.9768422339680831</v>
+        <v>1.045272826506293</v>
       </c>
       <c r="F13">
-        <v>0.9286945089159934</v>
+        <v>1.037500773972424</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026810247942375</v>
+        <v>1.039953319464986</v>
       </c>
       <c r="J13">
-        <v>0.9972107729663476</v>
+        <v>1.04796604932683</v>
       </c>
       <c r="K13">
-        <v>1.005687476694132</v>
+        <v>1.045574512104347</v>
       </c>
       <c r="L13">
-        <v>0.9923813904828961</v>
+        <v>1.048840866253599</v>
       </c>
       <c r="M13">
-        <v>0.9452792198082814</v>
+        <v>1.041097598444881</v>
       </c>
       <c r="N13">
-        <v>0.9986269266456343</v>
+        <v>1.04945428132026</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9676919337567271</v>
+        <v>1.041637019378901</v>
       </c>
       <c r="D14">
-        <v>0.9916842826089589</v>
+        <v>1.042190540775644</v>
       </c>
       <c r="E14">
-        <v>0.9784180832196298</v>
+        <v>1.045523765567463</v>
       </c>
       <c r="F14">
-        <v>0.931050609860241</v>
+        <v>1.037870858200377</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02746392953843</v>
+        <v>1.040037354847567</v>
       </c>
       <c r="J14">
-        <v>0.9985110685287617</v>
+        <v>1.04816501359703</v>
       </c>
       <c r="K14">
-        <v>1.006781921004158</v>
+        <v>1.045738541153878</v>
       </c>
       <c r="L14">
-        <v>0.9937763323775964</v>
+        <v>1.049059600330186</v>
       </c>
       <c r="M14">
-        <v>0.9474203655828061</v>
+        <v>1.041434753125827</v>
       </c>
       <c r="N14">
-        <v>0.9999290687768927</v>
+        <v>1.049653528142545</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9687313857120178</v>
+        <v>1.041797235934769</v>
       </c>
       <c r="D15">
-        <v>0.9924582260450623</v>
+        <v>1.042311340935188</v>
       </c>
       <c r="E15">
-        <v>0.9793819712763078</v>
+        <v>1.045678320964009</v>
       </c>
       <c r="F15">
-        <v>0.9324902374737664</v>
+        <v>1.038098796225549</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02786339014627</v>
+        <v>1.040089070210749</v>
       </c>
       <c r="J15">
-        <v>0.9993060557228635</v>
+        <v>1.048287528112354</v>
       </c>
       <c r="K15">
-        <v>1.00745105721765</v>
+        <v>1.04583953509196</v>
       </c>
       <c r="L15">
-        <v>0.994629320404917</v>
+        <v>1.049194301253321</v>
       </c>
       <c r="M15">
-        <v>0.9487286316906243</v>
+        <v>1.041642394893418</v>
       </c>
       <c r="N15">
-        <v>1.000725184943997</v>
+        <v>1.049776216642534</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.97466710254556</v>
+        <v>1.042728765004484</v>
       </c>
       <c r="D16">
-        <v>0.996880843500134</v>
+        <v>1.043013602694454</v>
       </c>
       <c r="E16">
-        <v>0.9848892543035511</v>
+        <v>1.046577047091976</v>
       </c>
       <c r="F16">
-        <v>0.9406944452811521</v>
+        <v>1.039424243420023</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030140127137114</v>
+        <v>1.040389138815502</v>
       </c>
       <c r="J16">
-        <v>1.003843026195334</v>
+        <v>1.048999494264515</v>
       </c>
       <c r="K16">
-        <v>1.011269800488816</v>
+        <v>1.046426304289906</v>
       </c>
       <c r="L16">
-        <v>0.9994993070693835</v>
+        <v>1.049977283149006</v>
       </c>
       <c r="M16">
-        <v>0.9561838006246246</v>
+        <v>1.042849596444216</v>
       </c>
       <c r="N16">
-        <v>1.005268598434936</v>
+        <v>1.050489193868294</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9782949386234762</v>
+        <v>1.043312217709085</v>
       </c>
       <c r="D17">
-        <v>0.9995863797278155</v>
+        <v>1.043453373610083</v>
       </c>
       <c r="E17">
-        <v>0.9882578185747452</v>
+        <v>1.047140052304061</v>
       </c>
       <c r="F17">
-        <v>0.9456954939715571</v>
+        <v>1.040254579296006</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03152776116345</v>
+        <v>1.040576542350399</v>
       </c>
       <c r="J17">
-        <v>1.006613543507206</v>
+        <v>1.049445112541534</v>
       </c>
       <c r="K17">
-        <v>1.013601665094453</v>
+        <v>1.046793442915415</v>
       </c>
       <c r="L17">
-        <v>1.002474911563643</v>
+        <v>1.050467523555612</v>
       </c>
       <c r="M17">
-        <v>0.9607277409027734</v>
+        <v>1.043605659069221</v>
       </c>
       <c r="N17">
-        <v>1.008043050199174</v>
+        <v>1.05093544497438</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9803785154778519</v>
+        <v>1.043652226021259</v>
       </c>
       <c r="D18">
-        <v>1.001141072558477</v>
+        <v>1.043709620851523</v>
       </c>
       <c r="E18">
-        <v>0.9901933774555403</v>
+        <v>1.047468180031845</v>
       </c>
       <c r="F18">
-        <v>0.9485634667116625</v>
+        <v>1.040738517790792</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032323300173361</v>
+        <v>1.04068555708599</v>
       </c>
       <c r="J18">
-        <v>1.00820385717627</v>
+        <v>1.049704684483505</v>
       </c>
       <c r="K18">
-        <v>1.014940138629858</v>
+        <v>1.047007257504163</v>
       </c>
       <c r="L18">
-        <v>1.004183560616312</v>
+        <v>1.050753150336644</v>
       </c>
       <c r="M18">
-        <v>0.9633333374524242</v>
+        <v>1.044046238222928</v>
       </c>
       <c r="N18">
-        <v>1.009635622296059</v>
+        <v>1.051195385538282</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9810836236509275</v>
+        <v>1.04376810790618</v>
       </c>
       <c r="D19">
-        <v>1.001667332453386</v>
+        <v>1.043796950069241</v>
       </c>
       <c r="E19">
-        <v>0.9908485419571944</v>
+        <v>1.047580018727699</v>
       </c>
       <c r="F19">
-        <v>0.9495333404804299</v>
+        <v>1.040903464167184</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032592276849461</v>
+        <v>1.040722678469507</v>
       </c>
       <c r="J19">
-        <v>1.008741889135888</v>
+        <v>1.049793132804408</v>
       </c>
       <c r="K19">
-        <v>1.015392958231592</v>
+        <v>1.047080106828638</v>
       </c>
       <c r="L19">
-        <v>1.004761730692822</v>
+        <v>1.050850487366455</v>
       </c>
       <c r="M19">
-        <v>0.9642144378840608</v>
+        <v>1.044196393845644</v>
       </c>
       <c r="N19">
-        <v>1.010174418322773</v>
+        <v>1.051283959465946</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9779091069537335</v>
+        <v>1.043249650889048</v>
       </c>
       <c r="D20">
-        <v>0.9992985504981043</v>
+        <v>1.04340621768971</v>
       </c>
       <c r="E20">
-        <v>0.9878994678488699</v>
+        <v>1.047079674530605</v>
       </c>
       <c r="F20">
-        <v>0.9451640728194636</v>
+        <v>1.040165531836351</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031380329282957</v>
+        <v>1.040556466227925</v>
       </c>
       <c r="J20">
-        <v>1.006318981625109</v>
+        <v>1.049397338157919</v>
       </c>
       <c r="K20">
-        <v>1.013353745273766</v>
+        <v>1.046754086727941</v>
       </c>
       <c r="L20">
-        <v>1.00215848082172</v>
+        <v>1.050414958798739</v>
       </c>
       <c r="M20">
-        <v>0.9602449164892075</v>
+        <v>1.04352458423997</v>
       </c>
       <c r="N20">
-        <v>1.007748070005417</v>
+        <v>1.050887602745661</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9671930402283401</v>
+        <v>1.041560427542965</v>
       </c>
       <c r="D21">
-        <v>0.9913128802293298</v>
+        <v>1.0421327903938</v>
       </c>
       <c r="E21">
-        <v>0.9779555139406763</v>
+        <v>1.045449882047333</v>
       </c>
       <c r="F21">
-        <v>0.9303593280392587</v>
+        <v>1.037761894970274</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027272127852908</v>
+        <v>1.040012621365158</v>
       </c>
       <c r="J21">
-        <v>0.9981294587165257</v>
+        <v>1.048106438999982</v>
       </c>
       <c r="K21">
-        <v>1.006460723201286</v>
+        <v>1.045690253237292</v>
       </c>
       <c r="L21">
-        <v>0.9933669175167918</v>
+        <v>1.048995202856962</v>
       </c>
       <c r="M21">
-        <v>0.9467921554619482</v>
+        <v>1.041335488338817</v>
       </c>
       <c r="N21">
-        <v>0.999546917034952</v>
+        <v>1.049594870362851</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9601187230618972</v>
+        <v>1.040495467556831</v>
       </c>
       <c r="D22">
-        <v>0.9860505479485392</v>
+        <v>1.041329701381949</v>
       </c>
       <c r="E22">
-        <v>0.9714002250868481</v>
+        <v>1.044422711811401</v>
       </c>
       <c r="F22">
-        <v>0.9205336129234692</v>
+        <v>1.036247024732196</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024547245446927</v>
+        <v>1.039667998300064</v>
       </c>
       <c r="J22">
-        <v>0.9927149273816022</v>
+        <v>1.047291579371914</v>
       </c>
       <c r="K22">
-        <v>1.00190350539507</v>
+        <v>1.045018339071452</v>
       </c>
       <c r="L22">
-        <v>0.9875603673714284</v>
+        <v>1.04809956983512</v>
       </c>
       <c r="M22">
-        <v>0.9378627259618745</v>
+        <v>1.039955189144558</v>
       </c>
       <c r="N22">
-        <v>0.9941246964444779</v>
+        <v>1.048778853540645</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9639032478185193</v>
+        <v>1.04106030008183</v>
       </c>
       <c r="D23">
-        <v>0.9888647444748809</v>
+        <v>1.041755667731154</v>
       </c>
       <c r="E23">
-        <v>0.974906170043042</v>
+        <v>1.044967470771608</v>
       </c>
       <c r="F23">
-        <v>0.9257955629068177</v>
+        <v>1.037050436116802</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026006133245041</v>
+        <v>1.039850945709842</v>
       </c>
       <c r="J23">
-        <v>0.995612275205639</v>
+        <v>1.047723860521692</v>
       </c>
       <c r="K23">
-        <v>1.004342057415238</v>
+        <v>1.045374824376816</v>
       </c>
       <c r="L23">
-        <v>0.9906669118369057</v>
+        <v>1.048574647548831</v>
       </c>
       <c r="M23">
-        <v>0.9426447165880342</v>
+        <v>1.040687291460085</v>
       </c>
       <c r="N23">
-        <v>0.9970261588347552</v>
+        <v>1.049211748579239</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9780835475911517</v>
+        <v>1.043277923099047</v>
       </c>
       <c r="D24">
-        <v>0.9994286801371304</v>
+        <v>1.043427526235193</v>
       </c>
       <c r="E24">
-        <v>0.9880614811560905</v>
+        <v>1.047106957462302</v>
       </c>
       <c r="F24">
-        <v>0.9454043499850302</v>
+        <v>1.040205769731395</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031446990010016</v>
+        <v>1.040565538673738</v>
       </c>
       <c r="J24">
-        <v>1.006452160474951</v>
+        <v>1.049418926425866</v>
       </c>
       <c r="K24">
-        <v>1.013465836226307</v>
+        <v>1.046771871118277</v>
       </c>
       <c r="L24">
-        <v>1.002301545230374</v>
+        <v>1.050438711545185</v>
       </c>
       <c r="M24">
-        <v>0.9604632218353935</v>
+        <v>1.043561219760933</v>
       </c>
       <c r="N24">
-        <v>1.007881437984502</v>
+        <v>1.050909221671425</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9932786716323745</v>
+        <v>1.045839242849683</v>
       </c>
       <c r="D25">
-        <v>1.010779167771777</v>
+        <v>1.045357310251699</v>
       </c>
       <c r="E25">
-        <v>1.002191688764053</v>
+        <v>1.049579408432722</v>
       </c>
       <c r="F25">
-        <v>0.9662572585174539</v>
+        <v>1.043852440815402</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037223072946212</v>
+        <v>1.041383244544835</v>
       </c>
       <c r="J25">
-        <v>1.018034372023555</v>
+        <v>1.051372274541286</v>
       </c>
       <c r="K25">
-        <v>1.023212424214929</v>
+        <v>1.048380103470442</v>
       </c>
       <c r="L25">
-        <v>1.014756076596635</v>
+        <v>1.052589253451003</v>
       </c>
       <c r="M25">
-        <v>0.9794029917542295</v>
+        <v>1.046879876760653</v>
       </c>
       <c r="N25">
-        <v>1.019480097602003</v>
+        <v>1.05286534376522</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_32/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.047872834555001</v>
+        <v>1.004563543934642</v>
       </c>
       <c r="D2">
-        <v>1.046888489374791</v>
+        <v>1.019226100652295</v>
       </c>
       <c r="E2">
-        <v>1.051543531943921</v>
+        <v>1.012708577255826</v>
       </c>
       <c r="F2">
-        <v>1.046749836017703</v>
+        <v>0.9816598927262654</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042026306375352</v>
+        <v>1.041467191940432</v>
       </c>
       <c r="J2">
-        <v>1.052919589952319</v>
+        <v>1.026608611703447</v>
       </c>
       <c r="K2">
-        <v>1.049652664333931</v>
+        <v>1.0304239289888</v>
       </c>
       <c r="L2">
-        <v>1.054294741769581</v>
+        <v>1.02399365573564</v>
       </c>
       <c r="M2">
-        <v>1.04951439906931</v>
+        <v>0.9933807889737308</v>
       </c>
       <c r="N2">
-        <v>1.054414856541616</v>
+        <v>1.02806651368572</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049344227391863</v>
+        <v>1.012344860378757</v>
       </c>
       <c r="D3">
-        <v>1.047995766124216</v>
+        <v>1.02505768472129</v>
       </c>
       <c r="E3">
-        <v>1.052965283923206</v>
+        <v>1.01997201774997</v>
       </c>
       <c r="F3">
-        <v>1.048847537169125</v>
+        <v>0.9922479967323869</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042488008664078</v>
+        <v>1.044366266873247</v>
       </c>
       <c r="J3">
-        <v>1.054037069076656</v>
+        <v>1.032504557194061</v>
       </c>
       <c r="K3">
-        <v>1.0505709073597</v>
+        <v>1.035379680581097</v>
       </c>
       <c r="L3">
-        <v>1.055527595626825</v>
+        <v>1.030355574580011</v>
       </c>
       <c r="M3">
-        <v>1.051420470117733</v>
+        <v>1.002981036320322</v>
       </c>
       <c r="N3">
-        <v>1.055533922614486</v>
+        <v>1.033970832095205</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.05029399537022</v>
+        <v>1.017208732980205</v>
       </c>
       <c r="D4">
-        <v>1.048710217396566</v>
+        <v>1.028705308364545</v>
       </c>
       <c r="E4">
-        <v>1.053883294080731</v>
+        <v>1.024517142003351</v>
       </c>
       <c r="F4">
-        <v>1.050202220319866</v>
+        <v>0.998855496641157</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04278437326281</v>
+        <v>1.046165391403782</v>
       </c>
       <c r="J4">
-        <v>1.054757430456878</v>
+        <v>1.03618225128816</v>
       </c>
       <c r="K4">
-        <v>1.051162458568309</v>
+        <v>1.03846920295379</v>
       </c>
       <c r="L4">
-        <v>1.056322859395637</v>
+        <v>1.03432840455734</v>
       </c>
       <c r="M4">
-        <v>1.052650791776003</v>
+        <v>1.00896775446521</v>
       </c>
       <c r="N4">
-        <v>1.056255306990495</v>
+        <v>1.037653748936755</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050692732305291</v>
+        <v>1.019215127631414</v>
       </c>
       <c r="D5">
-        <v>1.049010093383707</v>
+        <v>1.030210469977128</v>
       </c>
       <c r="E5">
-        <v>1.054268765998191</v>
+        <v>1.026393181660475</v>
       </c>
       <c r="F5">
-        <v>1.050771109384476</v>
+        <v>1.00157910732851</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042908397068182</v>
+        <v>1.046904378099223</v>
       </c>
       <c r="J5">
-        <v>1.055059626824334</v>
+        <v>1.037697466542024</v>
       </c>
       <c r="K5">
-        <v>1.051410527589777</v>
+        <v>1.039741644013297</v>
       </c>
       <c r="L5">
-        <v>1.056656604366423</v>
+        <v>1.035966283040568</v>
       </c>
       <c r="M5">
-        <v>1.053167310434213</v>
+        <v>1.011434388426034</v>
       </c>
       <c r="N5">
-        <v>1.056557932511455</v>
+        <v>1.039171115970077</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050759650298206</v>
+        <v>1.019549830389687</v>
       </c>
       <c r="D6">
-        <v>1.049060415971461</v>
+        <v>1.030461583264981</v>
       </c>
       <c r="E6">
-        <v>1.054333461749694</v>
+        <v>1.026706203819056</v>
       </c>
       <c r="F6">
-        <v>1.050866592581346</v>
+        <v>1.002033348993742</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042929188018482</v>
+        <v>1.047027466510359</v>
       </c>
       <c r="J6">
-        <v>1.055110329421878</v>
+        <v>1.03795012105584</v>
       </c>
       <c r="K6">
-        <v>1.051452143354615</v>
+        <v>1.039953789866168</v>
       </c>
       <c r="L6">
-        <v>1.056712607623688</v>
+        <v>1.036239453611904</v>
       </c>
       <c r="M6">
-        <v>1.053253995151153</v>
+        <v>1.011845706038399</v>
       </c>
       <c r="N6">
-        <v>1.056608707112503</v>
+        <v>1.039424129282282</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050299325443566</v>
+        <v>1.017235690078564</v>
       </c>
       <c r="D7">
-        <v>1.048714226229198</v>
+        <v>1.028725529335069</v>
       </c>
       <c r="E7">
-        <v>1.053888446569648</v>
+        <v>1.024542343295746</v>
       </c>
       <c r="F7">
-        <v>1.05020982425467</v>
+        <v>0.9988920973914789</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042786032701737</v>
+        <v>1.046175332748343</v>
       </c>
       <c r="J7">
-        <v>1.054761470938235</v>
+        <v>1.036202616538542</v>
       </c>
       <c r="K7">
-        <v>1.051165775703345</v>
+        <v>1.038486307014027</v>
       </c>
       <c r="L7">
-        <v>1.05632732119607</v>
+        <v>1.034350414243034</v>
       </c>
       <c r="M7">
-        <v>1.052657696286028</v>
+        <v>1.009000906271434</v>
       </c>
       <c r="N7">
-        <v>1.056259353209799</v>
+        <v>1.037674143108128</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.048370585555703</v>
+        <v>1.007230366486435</v>
       </c>
       <c r="D8">
-        <v>1.047263123378116</v>
+        <v>1.02122411362742</v>
       </c>
       <c r="E8">
-        <v>1.052024430813081</v>
+        <v>1.015196824907406</v>
       </c>
       <c r="F8">
-        <v>1.047459328467891</v>
+        <v>0.9852913093387262</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042182837465354</v>
+        <v>1.042463487701335</v>
       </c>
       <c r="J8">
-        <v>1.053297815874781</v>
+        <v>1.028630890132211</v>
       </c>
       <c r="K8">
-        <v>1.049963533954241</v>
+        <v>1.032124065126005</v>
       </c>
       <c r="L8">
-        <v>1.054711908208445</v>
+        <v>1.026174806216802</v>
       </c>
       <c r="M8">
-        <v>1.050159203575695</v>
+        <v>0.9966742755361258</v>
       </c>
       <c r="N8">
-        <v>1.054793619588271</v>
+        <v>1.030091663981811</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.044953656230705</v>
+        <v>0.9881560345682745</v>
       </c>
       <c r="D9">
-        <v>1.044690231555894</v>
+        <v>1.006949426131475</v>
       </c>
       <c r="E9">
-        <v>1.048724378137043</v>
+        <v>0.9974241503538811</v>
       </c>
       <c r="F9">
-        <v>1.042591281839346</v>
+        <v>0.9592433018016241</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041101475051429</v>
+        <v>1.035282973207169</v>
       </c>
       <c r="J9">
-        <v>1.050697450035466</v>
+        <v>1.014134079871226</v>
       </c>
       <c r="K9">
-        <v>1.047824718867227</v>
+        <v>1.019930751051965</v>
       </c>
       <c r="L9">
-        <v>1.05184599851778</v>
+        <v>1.010559157624312</v>
       </c>
       <c r="M9">
-        <v>1.045732506870338</v>
+        <v>0.9730341535500633</v>
       </c>
       <c r="N9">
-        <v>1.052189560931198</v>
+        <v>1.015574266587448</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.042662787026061</v>
+        <v>0.974252592045879</v>
       </c>
       <c r="D10">
-        <v>1.042963868471546</v>
+        <v>0.9965718314523453</v>
       </c>
       <c r="E10">
-        <v>1.046513386140269</v>
+        <v>0.9845044927165736</v>
       </c>
       <c r="F10">
-        <v>1.039330355189932</v>
+        <v>0.9401224113031346</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040367920446134</v>
+        <v>1.02998138510973</v>
       </c>
       <c r="J10">
-        <v>1.048949087565126</v>
+        <v>1.003526351404953</v>
       </c>
       <c r="K10">
-        <v>1.046384769095094</v>
+        <v>1.011003259640957</v>
       </c>
       <c r="L10">
-        <v>1.049921837428482</v>
+        <v>0.9991592752939082</v>
       </c>
       <c r="M10">
-        <v>1.042764096845558</v>
+        <v>0.9556640231053198</v>
       </c>
       <c r="N10">
-        <v>1.050438715585611</v>
+        <v>1.00495147393003</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.041667605970281</v>
+        <v>0.9678908052048442</v>
       </c>
       <c r="D11">
-        <v>1.042213602826281</v>
+        <v>0.9918323434331507</v>
       </c>
       <c r="E11">
-        <v>1.045553270964612</v>
+        <v>0.9786024851678655</v>
       </c>
       <c r="F11">
-        <v>1.03791437269429</v>
+        <v>0.931326113879106</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040047230088561</v>
+        <v>1.027540372587267</v>
       </c>
       <c r="J11">
-        <v>1.048188403951734</v>
+        <v>0.9986631788982702</v>
       </c>
       <c r="K11">
-        <v>1.045757823341036</v>
+        <v>1.006909951239097</v>
       </c>
       <c r="L11">
-        <v>1.049085316539662</v>
+        <v>0.9939395324783771</v>
       </c>
       <c r="M11">
-        <v>1.041474393829656</v>
+        <v>0.9476707319914898</v>
       </c>
       <c r="N11">
-        <v>1.049676951714236</v>
+        <v>1.000081395160574</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.041297455044862</v>
+        <v>0.9654702413224342</v>
       </c>
       <c r="D12">
-        <v>1.041934500686957</v>
+        <v>0.9900306315252726</v>
       </c>
       <c r="E12">
-        <v>1.045196218115678</v>
+        <v>0.9763584340200728</v>
       </c>
       <c r="F12">
-        <v>1.037387792144943</v>
+        <v>0.9279705416596284</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039927647533707</v>
+        <v>1.026609412520253</v>
       </c>
       <c r="J12">
-        <v>1.047905296509828</v>
+        <v>0.9968114271060744</v>
       </c>
       <c r="K12">
-        <v>1.045524423080515</v>
+        <v>1.005351354132508</v>
       </c>
       <c r="L12">
-        <v>1.048774081974724</v>
+        <v>0.9919530314785201</v>
       </c>
       <c r="M12">
-        <v>1.040994663723439</v>
+        <v>0.9446212962521378</v>
       </c>
       <c r="N12">
-        <v>1.04939344222729</v>
+        <v>0.9982270136684339</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.041376876341529</v>
+        <v>0.9659921749507261</v>
       </c>
       <c r="D13">
-        <v>1.041994388191032</v>
+        <v>0.9904190493142326</v>
       </c>
       <c r="E13">
-        <v>1.045272826506293</v>
+        <v>0.9768422339680818</v>
       </c>
       <c r="F13">
-        <v>1.037500773972424</v>
+        <v>0.9286945089159925</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039953319464986</v>
+        <v>1.026810247942375</v>
       </c>
       <c r="J13">
-        <v>1.04796604932683</v>
+        <v>0.9972107729663465</v>
       </c>
       <c r="K13">
-        <v>1.045574512104347</v>
+        <v>1.005687476694131</v>
       </c>
       <c r="L13">
-        <v>1.048840866253599</v>
+        <v>0.9923813904828949</v>
       </c>
       <c r="M13">
-        <v>1.041097598444881</v>
+        <v>0.9452792198082807</v>
       </c>
       <c r="N13">
-        <v>1.04945428132026</v>
+        <v>0.9986269266456335</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.041637019378901</v>
+        <v>0.9676919337567259</v>
       </c>
       <c r="D14">
-        <v>1.042190540775644</v>
+        <v>0.991684282608958</v>
       </c>
       <c r="E14">
-        <v>1.045523765567463</v>
+        <v>0.9784180832196282</v>
       </c>
       <c r="F14">
-        <v>1.037870858200377</v>
+        <v>0.9310506098602395</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040037354847567</v>
+        <v>1.027463929538429</v>
       </c>
       <c r="J14">
-        <v>1.04816501359703</v>
+        <v>0.9985110685287604</v>
       </c>
       <c r="K14">
-        <v>1.045738541153878</v>
+        <v>1.006781921004157</v>
       </c>
       <c r="L14">
-        <v>1.049059600330186</v>
+        <v>0.9937763323775947</v>
       </c>
       <c r="M14">
-        <v>1.041434753125827</v>
+        <v>0.9474203655828045</v>
       </c>
       <c r="N14">
-        <v>1.049653528142545</v>
+        <v>0.9999290687768914</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.041797235934769</v>
+        <v>0.9687313857120174</v>
       </c>
       <c r="D15">
-        <v>1.042311340935188</v>
+        <v>0.9924582260450618</v>
       </c>
       <c r="E15">
-        <v>1.045678320964009</v>
+        <v>0.9793819712763077</v>
       </c>
       <c r="F15">
-        <v>1.038098796225549</v>
+        <v>0.9324902374737661</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040089070210749</v>
+        <v>1.02786339014627</v>
       </c>
       <c r="J15">
-        <v>1.048287528112354</v>
+        <v>0.9993060557228631</v>
       </c>
       <c r="K15">
-        <v>1.04583953509196</v>
+        <v>1.00745105721765</v>
       </c>
       <c r="L15">
-        <v>1.049194301253321</v>
+        <v>0.9946293204049167</v>
       </c>
       <c r="M15">
-        <v>1.041642394893418</v>
+        <v>0.9487286316906239</v>
       </c>
       <c r="N15">
-        <v>1.049776216642534</v>
+        <v>1.000725184943996</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.042728765004484</v>
+        <v>0.9746671025455592</v>
       </c>
       <c r="D16">
-        <v>1.043013602694454</v>
+        <v>0.9968808435001336</v>
       </c>
       <c r="E16">
-        <v>1.046577047091976</v>
+        <v>0.9848892543035501</v>
       </c>
       <c r="F16">
-        <v>1.039424243420023</v>
+        <v>0.9406944452811512</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040389138815502</v>
+        <v>1.030140127137114</v>
       </c>
       <c r="J16">
-        <v>1.048999494264515</v>
+        <v>1.003843026195333</v>
       </c>
       <c r="K16">
-        <v>1.046426304289906</v>
+        <v>1.011269800488816</v>
       </c>
       <c r="L16">
-        <v>1.049977283149006</v>
+        <v>0.9994993070693827</v>
       </c>
       <c r="M16">
-        <v>1.042849596444216</v>
+        <v>0.9561838006246236</v>
       </c>
       <c r="N16">
-        <v>1.050489193868294</v>
+        <v>1.005268598434935</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.043312217709085</v>
+        <v>0.9782949386234777</v>
       </c>
       <c r="D17">
-        <v>1.043453373610083</v>
+        <v>0.9995863797278166</v>
       </c>
       <c r="E17">
-        <v>1.047140052304061</v>
+        <v>0.9882578185747464</v>
       </c>
       <c r="F17">
-        <v>1.040254579296006</v>
+        <v>0.9456954939715584</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040576542350399</v>
+        <v>1.031527761163451</v>
       </c>
       <c r="J17">
-        <v>1.049445112541534</v>
+        <v>1.006613543507207</v>
       </c>
       <c r="K17">
-        <v>1.046793442915415</v>
+        <v>1.013601665094454</v>
       </c>
       <c r="L17">
-        <v>1.050467523555612</v>
+        <v>1.002474911563645</v>
       </c>
       <c r="M17">
-        <v>1.043605659069221</v>
+        <v>0.9607277409027746</v>
       </c>
       <c r="N17">
-        <v>1.05093544497438</v>
+        <v>1.008043050199175</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.043652226021259</v>
+        <v>0.9803785154778554</v>
       </c>
       <c r="D18">
-        <v>1.043709620851523</v>
+        <v>1.00114107255848</v>
       </c>
       <c r="E18">
-        <v>1.047468180031845</v>
+        <v>0.990193377455544</v>
       </c>
       <c r="F18">
-        <v>1.040738517790792</v>
+        <v>0.9485634667116661</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04068555708599</v>
+        <v>1.032323300173363</v>
       </c>
       <c r="J18">
-        <v>1.049704684483505</v>
+        <v>1.008203857176274</v>
       </c>
       <c r="K18">
-        <v>1.047007257504163</v>
+        <v>1.014940138629861</v>
       </c>
       <c r="L18">
-        <v>1.050753150336644</v>
+        <v>1.004183560616316</v>
       </c>
       <c r="M18">
-        <v>1.044046238222928</v>
+        <v>0.9633333374524279</v>
       </c>
       <c r="N18">
-        <v>1.051195385538282</v>
+        <v>1.009635622296063</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04376810790618</v>
+        <v>0.9810836236509282</v>
       </c>
       <c r="D19">
-        <v>1.043796950069241</v>
+        <v>1.001667332453387</v>
       </c>
       <c r="E19">
-        <v>1.047580018727699</v>
+        <v>0.9908485419571957</v>
       </c>
       <c r="F19">
-        <v>1.040903464167184</v>
+        <v>0.9495333404804315</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040722678469507</v>
+        <v>1.032592276849461</v>
       </c>
       <c r="J19">
-        <v>1.049793132804408</v>
+        <v>1.008741889135889</v>
       </c>
       <c r="K19">
-        <v>1.047080106828638</v>
+        <v>1.015392958231593</v>
       </c>
       <c r="L19">
-        <v>1.050850487366455</v>
+        <v>1.004761730692823</v>
       </c>
       <c r="M19">
-        <v>1.044196393845644</v>
+        <v>0.9642144378840622</v>
       </c>
       <c r="N19">
-        <v>1.051283959465946</v>
+        <v>1.010174418322774</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.043249650889048</v>
+        <v>0.9779091069537313</v>
       </c>
       <c r="D20">
-        <v>1.04340621768971</v>
+        <v>0.999298550498103</v>
       </c>
       <c r="E20">
-        <v>1.047079674530605</v>
+        <v>0.987899467848868</v>
       </c>
       <c r="F20">
-        <v>1.040165531836351</v>
+        <v>0.9451640728194611</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040556466227925</v>
+        <v>1.031380329282956</v>
       </c>
       <c r="J20">
-        <v>1.049397338157919</v>
+        <v>1.006318981625107</v>
       </c>
       <c r="K20">
-        <v>1.046754086727941</v>
+        <v>1.013353745273764</v>
       </c>
       <c r="L20">
-        <v>1.050414958798739</v>
+        <v>1.002158480821718</v>
       </c>
       <c r="M20">
-        <v>1.04352458423997</v>
+        <v>0.9602449164892053</v>
       </c>
       <c r="N20">
-        <v>1.050887602745661</v>
+        <v>1.007748070005416</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.041560427542965</v>
+        <v>0.967193040228341</v>
       </c>
       <c r="D21">
-        <v>1.0421327903938</v>
+        <v>0.9913128802293305</v>
       </c>
       <c r="E21">
-        <v>1.045449882047333</v>
+        <v>0.9779555139406766</v>
       </c>
       <c r="F21">
-        <v>1.037761894970274</v>
+        <v>0.9303593280392596</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040012621365158</v>
+        <v>1.027272127852909</v>
       </c>
       <c r="J21">
-        <v>1.048106438999982</v>
+        <v>0.9981294587165264</v>
       </c>
       <c r="K21">
-        <v>1.045690253237292</v>
+        <v>1.006460723201286</v>
       </c>
       <c r="L21">
-        <v>1.048995202856962</v>
+        <v>0.9933669175167925</v>
       </c>
       <c r="M21">
-        <v>1.041335488338817</v>
+        <v>0.9467921554619491</v>
       </c>
       <c r="N21">
-        <v>1.049594870362851</v>
+        <v>0.9995469170349528</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.040495467556831</v>
+        <v>0.9601187230618977</v>
       </c>
       <c r="D22">
-        <v>1.041329701381949</v>
+        <v>0.9860505479485397</v>
       </c>
       <c r="E22">
-        <v>1.044422711811401</v>
+        <v>0.9714002250868488</v>
       </c>
       <c r="F22">
-        <v>1.036247024732196</v>
+        <v>0.9205336129234695</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039667998300064</v>
+        <v>1.024547245446927</v>
       </c>
       <c r="J22">
-        <v>1.047291579371914</v>
+        <v>0.9927149273816025</v>
       </c>
       <c r="K22">
-        <v>1.045018339071452</v>
+        <v>1.00190350539507</v>
       </c>
       <c r="L22">
-        <v>1.04809956983512</v>
+        <v>0.987560367371429</v>
       </c>
       <c r="M22">
-        <v>1.039955189144558</v>
+        <v>0.9378627259618749</v>
       </c>
       <c r="N22">
-        <v>1.048778853540645</v>
+        <v>0.9941246964444782</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.04106030008183</v>
+        <v>0.9639032478185193</v>
       </c>
       <c r="D23">
-        <v>1.041755667731154</v>
+        <v>0.9888647444748809</v>
       </c>
       <c r="E23">
-        <v>1.044967470771608</v>
+        <v>0.9749061700430414</v>
       </c>
       <c r="F23">
-        <v>1.037050436116802</v>
+        <v>0.9257955629068171</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039850945709842</v>
+        <v>1.026006133245041</v>
       </c>
       <c r="J23">
-        <v>1.047723860521692</v>
+        <v>0.9956122752056388</v>
       </c>
       <c r="K23">
-        <v>1.045374824376816</v>
+        <v>1.004342057415238</v>
       </c>
       <c r="L23">
-        <v>1.048574647548831</v>
+        <v>0.9906669118369053</v>
       </c>
       <c r="M23">
-        <v>1.040687291460085</v>
+        <v>0.9426447165880334</v>
       </c>
       <c r="N23">
-        <v>1.049211748579239</v>
+        <v>0.9970261588347551</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.043277923099047</v>
+        <v>0.9780835475911518</v>
       </c>
       <c r="D24">
-        <v>1.043427526235193</v>
+        <v>0.9994286801371309</v>
       </c>
       <c r="E24">
-        <v>1.047106957462302</v>
+        <v>0.9880614811560908</v>
       </c>
       <c r="F24">
-        <v>1.040205769731395</v>
+        <v>0.9454043499850304</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040565538673738</v>
+        <v>1.031446990010017</v>
       </c>
       <c r="J24">
-        <v>1.049418926425866</v>
+        <v>1.006452160474951</v>
       </c>
       <c r="K24">
-        <v>1.046771871118277</v>
+        <v>1.013465836226308</v>
       </c>
       <c r="L24">
-        <v>1.050438711545185</v>
+        <v>1.002301545230374</v>
       </c>
       <c r="M24">
-        <v>1.043561219760933</v>
+        <v>0.9604632218353936</v>
       </c>
       <c r="N24">
-        <v>1.050909221671425</v>
+        <v>1.007881437984502</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.045839242849683</v>
+        <v>0.9932786716323758</v>
       </c>
       <c r="D25">
-        <v>1.045357310251699</v>
+        <v>1.010779167771778</v>
       </c>
       <c r="E25">
-        <v>1.049579408432722</v>
+        <v>1.002191688764054</v>
       </c>
       <c r="F25">
-        <v>1.043852440815402</v>
+        <v>0.9662572585174554</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041383244544835</v>
+        <v>1.037223072946213</v>
       </c>
       <c r="J25">
-        <v>1.051372274541286</v>
+        <v>1.018034372023556</v>
       </c>
       <c r="K25">
-        <v>1.048380103470442</v>
+        <v>1.023212424214931</v>
       </c>
       <c r="L25">
-        <v>1.052589253451003</v>
+        <v>1.014756076596636</v>
       </c>
       <c r="M25">
-        <v>1.046879876760653</v>
+        <v>0.979402991754231</v>
       </c>
       <c r="N25">
-        <v>1.05286534376522</v>
+        <v>1.019480097602004</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_32/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004563543934642</v>
+        <v>1.006634810388257</v>
       </c>
       <c r="D2">
-        <v>1.019226100652295</v>
+        <v>1.028887369498108</v>
       </c>
       <c r="E2">
-        <v>1.012708577255826</v>
+        <v>1.014766220802935</v>
       </c>
       <c r="F2">
-        <v>0.9816598927262654</v>
+        <v>1.032489891351877</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041467191940432</v>
+        <v>1.051178653840758</v>
       </c>
       <c r="J2">
-        <v>1.026608611703447</v>
+        <v>1.028618870318608</v>
       </c>
       <c r="K2">
-        <v>1.0304239289888</v>
+        <v>1.039958408621049</v>
       </c>
       <c r="L2">
-        <v>1.02399365573564</v>
+        <v>1.026023601462223</v>
       </c>
       <c r="M2">
-        <v>0.9933807889737308</v>
+        <v>1.043514412529989</v>
       </c>
       <c r="N2">
-        <v>1.02806651368572</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012496560128808</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.043011124922118</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.039324334334739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012344860378757</v>
+        <v>1.011872824295792</v>
       </c>
       <c r="D3">
-        <v>1.02505768472129</v>
+        <v>1.032409107193371</v>
       </c>
       <c r="E3">
-        <v>1.01997201774997</v>
+        <v>1.019502526970607</v>
       </c>
       <c r="F3">
-        <v>0.9922479967323869</v>
+        <v>1.036010118025879</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044366266873247</v>
+        <v>1.052475916472752</v>
       </c>
       <c r="J3">
-        <v>1.032504557194061</v>
+        <v>1.032044975042067</v>
       </c>
       <c r="K3">
-        <v>1.035379680581097</v>
+        <v>1.042643443661402</v>
       </c>
       <c r="L3">
-        <v>1.030355574580011</v>
+        <v>1.029891805378386</v>
       </c>
       <c r="M3">
-        <v>1.002981036320322</v>
+        <v>1.046202077333608</v>
       </c>
       <c r="N3">
-        <v>1.033970832095205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013740820216382</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.045138220932796</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04122022599961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017208732980205</v>
+        <v>1.015186653110998</v>
       </c>
       <c r="D4">
-        <v>1.028705308364545</v>
+        <v>1.034639702501287</v>
       </c>
       <c r="E4">
-        <v>1.024517142003351</v>
+        <v>1.022504522320866</v>
       </c>
       <c r="F4">
-        <v>0.998855496641157</v>
+        <v>1.038244873795081</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046165391403782</v>
+        <v>1.053282359543588</v>
       </c>
       <c r="J4">
-        <v>1.03618225128816</v>
+        <v>1.03420970205806</v>
       </c>
       <c r="K4">
-        <v>1.03846920295379</v>
+        <v>1.044337287119971</v>
       </c>
       <c r="L4">
-        <v>1.03432840455734</v>
+        <v>1.032338717805084</v>
       </c>
       <c r="M4">
-        <v>1.00896775446521</v>
+        <v>1.047902629650391</v>
       </c>
       <c r="N4">
-        <v>1.037653748936755</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014526159839626</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.046484084251563</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.042418809012907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019215127631414</v>
+        <v>1.016568599564457</v>
       </c>
       <c r="D5">
-        <v>1.030210469977128</v>
+        <v>1.035572316600795</v>
       </c>
       <c r="E5">
-        <v>1.026393181660475</v>
+        <v>1.023758272232488</v>
       </c>
       <c r="F5">
-        <v>1.00157910732851</v>
+        <v>1.039179035078153</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046904378099223</v>
+        <v>1.053616740947497</v>
       </c>
       <c r="J5">
-        <v>1.037697466542024</v>
+        <v>1.035113721690665</v>
       </c>
       <c r="K5">
-        <v>1.039741644013297</v>
+        <v>1.045045238723248</v>
       </c>
       <c r="L5">
-        <v>1.035966283040568</v>
+        <v>1.033360538551958</v>
       </c>
       <c r="M5">
-        <v>1.011434388426034</v>
+        <v>1.048613187570098</v>
       </c>
       <c r="N5">
-        <v>1.039171115970077</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014855725290469</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.047046438370718</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042926530997685</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019549830389687</v>
+        <v>1.016807147995007</v>
       </c>
       <c r="D6">
-        <v>1.030461583264981</v>
+        <v>1.035735586004847</v>
       </c>
       <c r="E6">
-        <v>1.026706203819056</v>
+        <v>1.023975431031803</v>
       </c>
       <c r="F6">
-        <v>1.002033348993742</v>
+        <v>1.039340923158167</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047027466510359</v>
+        <v>1.053676164015527</v>
       </c>
       <c r="J6">
-        <v>1.03795012105584</v>
+        <v>1.035272150206516</v>
       </c>
       <c r="K6">
-        <v>1.039953789866168</v>
+        <v>1.045170768022966</v>
       </c>
       <c r="L6">
-        <v>1.036239453611904</v>
+        <v>1.033538758267778</v>
       </c>
       <c r="M6">
-        <v>1.011845706038399</v>
+        <v>1.048737530656994</v>
       </c>
       <c r="N6">
-        <v>1.039424129282282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014915665564938</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04714484669726</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043023999513268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017235690078564</v>
+        <v>1.015225533623675</v>
       </c>
       <c r="D7">
-        <v>1.028725529335069</v>
+        <v>1.03467196698438</v>
       </c>
       <c r="E7">
-        <v>1.024542343295746</v>
+        <v>1.022541582911829</v>
       </c>
       <c r="F7">
-        <v>0.9988920973914789</v>
+        <v>1.038272550869595</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046175332748343</v>
+        <v>1.053296908635187</v>
       </c>
       <c r="J7">
-        <v>1.036202616538542</v>
+        <v>1.034241676424352</v>
       </c>
       <c r="K7">
-        <v>1.038486307014027</v>
+        <v>1.044366326420769</v>
       </c>
       <c r="L7">
-        <v>1.034350414243034</v>
+        <v>1.032372442332641</v>
       </c>
       <c r="M7">
-        <v>1.009000906271434</v>
+        <v>1.047927148290541</v>
       </c>
       <c r="N7">
-        <v>1.037674143108128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014543828741253</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.046503488951701</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.042459381541337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007230366486435</v>
+        <v>1.00844717781232</v>
       </c>
       <c r="D8">
-        <v>1.02122411362742</v>
+        <v>1.030112773743792</v>
       </c>
       <c r="E8">
-        <v>1.015196824907406</v>
+        <v>1.016406134905154</v>
       </c>
       <c r="F8">
-        <v>0.9852913093387262</v>
+        <v>1.033707944495314</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042463487701335</v>
+        <v>1.05163670587012</v>
       </c>
       <c r="J8">
-        <v>1.028630890132211</v>
+        <v>1.029813151116038</v>
       </c>
       <c r="K8">
-        <v>1.032124065126005</v>
+        <v>1.040899730737586</v>
       </c>
       <c r="L8">
-        <v>1.026174806216802</v>
+        <v>1.027368367467145</v>
       </c>
       <c r="M8">
-        <v>0.9966742755361258</v>
+        <v>1.044449886807863</v>
       </c>
       <c r="N8">
-        <v>1.030091663981811</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012938454105675</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043751487147319</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04001279718411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9881560345682745</v>
+        <v>0.9958559884547502</v>
       </c>
       <c r="D9">
-        <v>1.006949426131475</v>
+        <v>1.021658434516888</v>
       </c>
       <c r="E9">
-        <v>0.9974241503538811</v>
+        <v>1.005052948678281</v>
       </c>
       <c r="F9">
-        <v>0.9592433018016241</v>
+        <v>1.02529211596656</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035282973207169</v>
+        <v>1.048433382668759</v>
       </c>
       <c r="J9">
-        <v>1.014134079871226</v>
+        <v>1.021555935937911</v>
       </c>
       <c r="K9">
-        <v>1.019930751051965</v>
+        <v>1.034409627032971</v>
       </c>
       <c r="L9">
-        <v>1.010559157624312</v>
+        <v>1.018064573850052</v>
       </c>
       <c r="M9">
-        <v>0.9730341535500633</v>
+        <v>1.037987753818022</v>
       </c>
       <c r="N9">
-        <v>1.015574266587448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009928598473812</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.038637147051443</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.035420670251085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.974252592045879</v>
+        <v>0.9871189500750349</v>
       </c>
       <c r="D10">
-        <v>0.9965718314523453</v>
+        <v>1.015839628386409</v>
       </c>
       <c r="E10">
-        <v>0.9845044927165736</v>
+        <v>0.997220807197668</v>
       </c>
       <c r="F10">
-        <v>0.9401224113031346</v>
+        <v>1.019579970591141</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02998138510973</v>
+        <v>1.046162703851485</v>
       </c>
       <c r="J10">
-        <v>1.003526351404953</v>
+        <v>1.015853118434369</v>
       </c>
       <c r="K10">
-        <v>1.011003259640957</v>
+        <v>1.029928663936459</v>
       </c>
       <c r="L10">
-        <v>0.9991592752939082</v>
+        <v>1.011640422791304</v>
       </c>
       <c r="M10">
-        <v>0.9556640231053198</v>
+        <v>1.033604478318812</v>
       </c>
       <c r="N10">
-        <v>1.00495147393003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.00787860133119</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.035219703526803</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.03226917961062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9678908052048442</v>
+        <v>0.9841629321950418</v>
       </c>
       <c r="D11">
-        <v>0.9918323434331507</v>
+        <v>1.014073900517632</v>
       </c>
       <c r="E11">
-        <v>0.9786024851678655</v>
+        <v>0.994666477478392</v>
       </c>
       <c r="F11">
-        <v>0.931326113879106</v>
+        <v>1.018280641705766</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027540372587267</v>
+        <v>1.045550619619241</v>
       </c>
       <c r="J11">
-        <v>0.9986631788982702</v>
+        <v>1.014209722596874</v>
       </c>
       <c r="K11">
-        <v>1.006909951239097</v>
+        <v>1.028735196279234</v>
       </c>
       <c r="L11">
-        <v>0.9939395324783771</v>
+        <v>1.009689682052404</v>
       </c>
       <c r="M11">
-        <v>0.9476707319914898</v>
+        <v>1.032865854366098</v>
       </c>
       <c r="N11">
-        <v>1.000081395160574</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007545367494426</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035073093476239</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.031458328762934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9654702413224342</v>
+        <v>0.9833727277320081</v>
       </c>
       <c r="D12">
-        <v>0.9900306315252726</v>
+        <v>1.013686502501626</v>
       </c>
       <c r="E12">
-        <v>0.9763584340200728</v>
+        <v>0.9940242868735364</v>
       </c>
       <c r="F12">
-        <v>0.9279705416596284</v>
+        <v>1.018221430156951</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026609412520253</v>
+        <v>1.045457342309863</v>
       </c>
       <c r="J12">
-        <v>0.9968114271060744</v>
+        <v>1.013897843011356</v>
       </c>
       <c r="K12">
-        <v>1.005351354132508</v>
+        <v>1.028556105681509</v>
       </c>
       <c r="L12">
-        <v>0.9919530314785201</v>
+        <v>1.009266874637085</v>
       </c>
       <c r="M12">
-        <v>0.9446212962521378</v>
+        <v>1.033007668870435</v>
       </c>
       <c r="N12">
-        <v>0.9982270136684339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007631961424476</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.035512766054646</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.031331704787767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9659921749507261</v>
+        <v>0.9842316086564873</v>
       </c>
       <c r="D13">
-        <v>0.9904190493142326</v>
+        <v>1.014365464557206</v>
       </c>
       <c r="E13">
-        <v>0.9768422339680818</v>
+        <v>0.9948426200239248</v>
       </c>
       <c r="F13">
-        <v>0.9286945089159925</v>
+        <v>1.019148179491125</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026810247942375</v>
+        <v>1.045778641129905</v>
       </c>
       <c r="J13">
-        <v>0.9972107729663465</v>
+        <v>1.014623515487976</v>
       </c>
       <c r="K13">
-        <v>1.005687476694131</v>
+        <v>1.029179396867596</v>
       </c>
       <c r="L13">
-        <v>0.9923813904828949</v>
+        <v>1.010024930289752</v>
       </c>
       <c r="M13">
-        <v>0.9452792198082807</v>
+        <v>1.033874666438724</v>
       </c>
       <c r="N13">
-        <v>0.9986269266456335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008066690623465</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.03647569485383</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.031769891989272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9676919337567259</v>
+        <v>0.9855744623333549</v>
       </c>
       <c r="D14">
-        <v>0.991684282608958</v>
+        <v>1.015320045739099</v>
       </c>
       <c r="E14">
-        <v>0.9784180832196282</v>
+        <v>0.9960719839467091</v>
       </c>
       <c r="F14">
-        <v>0.9310506098602395</v>
+        <v>1.020238926340888</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027463929538429</v>
+        <v>1.046189176784697</v>
       </c>
       <c r="J14">
-        <v>0.9985110685287604</v>
+        <v>1.015596454278396</v>
       </c>
       <c r="K14">
-        <v>1.006781921004157</v>
+        <v>1.029975316104125</v>
       </c>
       <c r="L14">
-        <v>0.9937763323775947</v>
+        <v>1.011085425701363</v>
       </c>
       <c r="M14">
-        <v>0.9474203655828045</v>
+        <v>1.034805481590812</v>
       </c>
       <c r="N14">
-        <v>0.9999290687768914</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008526094595831</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.03738515205267</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032334068301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9687313857120174</v>
+        <v>0.986272354136658</v>
       </c>
       <c r="D15">
-        <v>0.9924582260450618</v>
+        <v>1.015797996635218</v>
       </c>
       <c r="E15">
-        <v>0.9793819712763077</v>
+        <v>0.9967020421636886</v>
       </c>
       <c r="F15">
-        <v>0.9324902374737661</v>
+        <v>1.020739764561324</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02786339014627</v>
+        <v>1.046386227219907</v>
       </c>
       <c r="J15">
-        <v>0.9993060557228631</v>
+        <v>1.016072963156454</v>
       </c>
       <c r="K15">
-        <v>1.00745105721765</v>
+        <v>1.030357703302676</v>
       </c>
       <c r="L15">
-        <v>0.9946293204049167</v>
+        <v>1.011614147131151</v>
       </c>
       <c r="M15">
-        <v>0.9487286316906239</v>
+        <v>1.035211062469637</v>
       </c>
       <c r="N15">
-        <v>1.000725184943996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008721421054606</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.037743319704525</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.032610323367886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9746671025455592</v>
+        <v>0.989823728414152</v>
       </c>
       <c r="D16">
-        <v>0.9968808435001336</v>
+        <v>1.018148180767788</v>
       </c>
       <c r="E16">
-        <v>0.9848892543035501</v>
+        <v>0.9998711895953836</v>
       </c>
       <c r="F16">
-        <v>0.9406944452811512</v>
+        <v>1.023022205741879</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030140127137114</v>
+        <v>1.047311843971106</v>
       </c>
       <c r="J16">
-        <v>1.003843026195333</v>
+        <v>1.018368895975171</v>
       </c>
       <c r="K16">
-        <v>1.011269800488816</v>
+        <v>1.03216157814496</v>
       </c>
       <c r="L16">
-        <v>0.9994993070693827</v>
+        <v>1.014206085558471</v>
       </c>
       <c r="M16">
-        <v>0.9561838006246236</v>
+        <v>1.036952371973552</v>
       </c>
       <c r="N16">
-        <v>1.005268598434935</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009511042980466</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.039080878295296</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.03388890355743</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9782949386234777</v>
+        <v>0.9918462725439742</v>
       </c>
       <c r="D17">
-        <v>0.9995863797278166</v>
+        <v>1.019452704774482</v>
       </c>
       <c r="E17">
-        <v>0.9882578185747464</v>
+        <v>1.001661581264231</v>
       </c>
       <c r="F17">
-        <v>0.9456954939715584</v>
+        <v>1.024197957492874</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031527761163451</v>
+        <v>1.047803892678406</v>
       </c>
       <c r="J17">
-        <v>1.006613543507207</v>
+        <v>1.019621433106809</v>
       </c>
       <c r="K17">
-        <v>1.013601665094454</v>
+        <v>1.033128042932498</v>
       </c>
       <c r="L17">
-        <v>1.002474911563645</v>
+        <v>1.015640539530098</v>
       </c>
       <c r="M17">
-        <v>0.9607277409027746</v>
+        <v>1.037794606699618</v>
       </c>
       <c r="N17">
-        <v>1.008043050199175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009877445786715</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.039617425959914</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.034574821530354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9803785154778554</v>
+        <v>0.9927133099177347</v>
       </c>
       <c r="D18">
-        <v>1.00114107255848</v>
+        <v>1.019941967645905</v>
       </c>
       <c r="E18">
-        <v>0.990193377455544</v>
+        <v>1.002398215500367</v>
       </c>
       <c r="F18">
-        <v>0.9485634667116661</v>
+        <v>1.024468805865643</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032323300173363</v>
+        <v>1.047952367170915</v>
       </c>
       <c r="J18">
-        <v>1.008203857176274</v>
+        <v>1.020054454427815</v>
       </c>
       <c r="K18">
-        <v>1.014940138629861</v>
+        <v>1.033425131662891</v>
       </c>
       <c r="L18">
-        <v>1.004183560616316</v>
+        <v>1.016175680627445</v>
       </c>
       <c r="M18">
-        <v>0.9633333374524279</v>
+        <v>1.037878131998697</v>
       </c>
       <c r="N18">
-        <v>1.009635622296063</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009889018339404</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039445485077573</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034773211385691</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9810836236509282</v>
+        <v>0.9925461352004784</v>
       </c>
       <c r="D19">
-        <v>1.001667332453387</v>
+        <v>1.019704076031522</v>
       </c>
       <c r="E19">
-        <v>0.9908485419571957</v>
+        <v>1.00219153197074</v>
       </c>
       <c r="F19">
-        <v>0.9495333404804315</v>
+        <v>1.023920300537406</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032592276849461</v>
+        <v>1.047797889939596</v>
       </c>
       <c r="J19">
-        <v>1.008741889135889</v>
+        <v>1.019757435245508</v>
       </c>
       <c r="K19">
-        <v>1.015392958231593</v>
+        <v>1.033128375960682</v>
       </c>
       <c r="L19">
-        <v>1.004761730692823</v>
+        <v>1.01590820268849</v>
       </c>
       <c r="M19">
-        <v>0.9642144378840622</v>
+        <v>1.037276128361883</v>
       </c>
       <c r="N19">
-        <v>1.010174418322774</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009600438571375</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038643478926521</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034569804571977</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,81 +1387,105 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9779091069537313</v>
+        <v>0.9894521332289781</v>
       </c>
       <c r="D20">
-        <v>0.999298550498103</v>
+        <v>1.017407792078037</v>
       </c>
       <c r="E20">
-        <v>0.987899467848868</v>
+        <v>0.9993154114754039</v>
       </c>
       <c r="F20">
-        <v>0.9451640728194611</v>
+        <v>1.021109218001639</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031380329282956</v>
+        <v>1.046787028370745</v>
       </c>
       <c r="J20">
-        <v>1.006318981625107</v>
+        <v>1.017395801209372</v>
       </c>
       <c r="K20">
-        <v>1.013353745273764</v>
+        <v>1.031151300326949</v>
       </c>
       <c r="L20">
-        <v>1.002158480821718</v>
+        <v>1.013370309237766</v>
       </c>
       <c r="M20">
-        <v>0.9602449164892053</v>
+        <v>1.03479077222339</v>
       </c>
       <c r="N20">
-        <v>1.007748070005416</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008453432703142</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.03614794347728</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033175874890255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.967193040228341</v>
+        <v>0.9826627753646571</v>
       </c>
       <c r="D21">
-        <v>0.9913128802293305</v>
+        <v>1.012854323641429</v>
       </c>
       <c r="E21">
-        <v>0.9779555139406766</v>
+        <v>0.9932249281073487</v>
       </c>
       <c r="F21">
-        <v>0.9303593280392596</v>
+        <v>1.016566730123484</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027272127852909</v>
+        <v>1.044963875575909</v>
       </c>
       <c r="J21">
-        <v>0.9981294587165264</v>
+        <v>1.012903678361633</v>
       </c>
       <c r="K21">
-        <v>1.006460723201286</v>
+        <v>1.027596191664349</v>
       </c>
       <c r="L21">
-        <v>0.9933669175167925</v>
+        <v>1.008335803256314</v>
       </c>
       <c r="M21">
-        <v>0.9467921554619491</v>
+        <v>1.031240894194237</v>
       </c>
       <c r="N21">
-        <v>0.9995469170349528</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006788634753702</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.033297426132377</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.030665526662466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9601187230618977</v>
+        <v>0.9783112241753309</v>
       </c>
       <c r="D22">
-        <v>0.9860505479485397</v>
+        <v>1.009948717166555</v>
       </c>
       <c r="E22">
-        <v>0.9714002250868488</v>
+        <v>0.9893330367742168</v>
       </c>
       <c r="F22">
-        <v>0.9205336129234695</v>
+        <v>1.013706171468282</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024547245446927</v>
+        <v>1.043787537616874</v>
       </c>
       <c r="J22">
-        <v>0.9927149273816025</v>
+        <v>1.010033783397803</v>
       </c>
       <c r="K22">
-        <v>1.00190350539507</v>
+        <v>1.025325631214157</v>
       </c>
       <c r="L22">
-        <v>0.987560367371429</v>
+        <v>1.00511881196345</v>
       </c>
       <c r="M22">
-        <v>0.9378627259618749</v>
+        <v>1.029010910075421</v>
       </c>
       <c r="N22">
-        <v>0.9941246964444782</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005731168706313</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.031532523125327</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.02904655065916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9639032478185193</v>
+        <v>0.9806079985915791</v>
       </c>
       <c r="D23">
-        <v>0.9888647444748809</v>
+        <v>1.011476340261955</v>
       </c>
       <c r="E23">
-        <v>0.9749061700430414</v>
+        <v>0.9913843753788889</v>
       </c>
       <c r="F23">
-        <v>0.9257955629068171</v>
+        <v>1.015213586588342</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026006133245041</v>
+        <v>1.044405521877157</v>
       </c>
       <c r="J23">
-        <v>0.9956122752056388</v>
+        <v>1.011542244150463</v>
       </c>
       <c r="K23">
-        <v>1.004342057415238</v>
+        <v>1.026516198916431</v>
       </c>
       <c r="L23">
-        <v>0.9906669118369053</v>
+        <v>1.006811644342625</v>
       </c>
       <c r="M23">
-        <v>0.9426447165880334</v>
+        <v>1.030183590556874</v>
       </c>
       <c r="N23">
-        <v>0.9970261588347551</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006279975539006</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.032460632221695</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.029878643568497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9780835475911518</v>
+        <v>0.9894402813812111</v>
       </c>
       <c r="D24">
-        <v>0.9994286801371309</v>
+        <v>1.017372542588827</v>
       </c>
       <c r="E24">
-        <v>0.9880614811560908</v>
+        <v>0.9992934999139439</v>
       </c>
       <c r="F24">
-        <v>0.9454043499850304</v>
+        <v>1.021037906038137</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031446990010017</v>
+        <v>1.046760970675223</v>
       </c>
       <c r="J24">
-        <v>1.006452160474951</v>
+        <v>1.017350967185027</v>
       </c>
       <c r="K24">
-        <v>1.013465836226308</v>
+        <v>1.031101294112336</v>
       </c>
       <c r="L24">
-        <v>1.002301545230374</v>
+        <v>1.013333033855446</v>
       </c>
       <c r="M24">
-        <v>0.9604632218353936</v>
+        <v>1.034705377557945</v>
       </c>
       <c r="N24">
-        <v>1.007881437984502</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.0084038072191</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.036039354853749</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033113013281378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9932786716323758</v>
+        <v>0.999223488607498</v>
       </c>
       <c r="D25">
-        <v>1.010779167771778</v>
+        <v>1.023925457941601</v>
       </c>
       <c r="E25">
-        <v>1.002191688764054</v>
+        <v>1.00808665766365</v>
       </c>
       <c r="F25">
-        <v>0.9662572585174554</v>
+        <v>1.027536781140904</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037223072946213</v>
+        <v>1.049310332416744</v>
       </c>
       <c r="J25">
-        <v>1.018034372023556</v>
+        <v>1.023777013747043</v>
       </c>
       <c r="K25">
-        <v>1.023212424214931</v>
+        <v>1.036163377705277</v>
       </c>
       <c r="L25">
-        <v>1.014756076596636</v>
+        <v>1.020560722443538</v>
       </c>
       <c r="M25">
-        <v>0.979402991754231</v>
+        <v>1.039722150820726</v>
       </c>
       <c r="N25">
-        <v>1.019480097602004</v>
+        <v>1.010749730188407</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.040009808237014</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.036689305383634</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_32/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006634810388257</v>
+        <v>1.006247082467098</v>
       </c>
       <c r="D2">
-        <v>1.028887369498108</v>
+        <v>1.027976867364292</v>
       </c>
       <c r="E2">
-        <v>1.014766220802935</v>
+        <v>1.014381032761007</v>
       </c>
       <c r="F2">
-        <v>1.032489891351877</v>
+        <v>1.031874962139967</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051178653840758</v>
+        <v>1.050716334171588</v>
       </c>
       <c r="J2">
-        <v>1.028618870318608</v>
+        <v>1.028242536445848</v>
       </c>
       <c r="K2">
-        <v>1.039958408621049</v>
+        <v>1.039059728060723</v>
       </c>
       <c r="L2">
-        <v>1.026023601462223</v>
+        <v>1.025643587670315</v>
       </c>
       <c r="M2">
-        <v>1.043514412529989</v>
+        <v>1.042907394903991</v>
       </c>
       <c r="N2">
-        <v>1.012496560128808</v>
+        <v>1.014136565824176</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043011124922118</v>
+        <v>1.042530712677794</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039324334334739</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038697656462245</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02223131316049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011872824295792</v>
+        <v>1.011083517570629</v>
       </c>
       <c r="D3">
-        <v>1.032409107193371</v>
+        <v>1.031112699316646</v>
       </c>
       <c r="E3">
-        <v>1.019502526970607</v>
+        <v>1.018717489768526</v>
       </c>
       <c r="F3">
-        <v>1.036010118025879</v>
+        <v>1.035096772750574</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052475916472752</v>
+        <v>1.051816950507845</v>
       </c>
       <c r="J3">
-        <v>1.032044975042067</v>
+        <v>1.031276528197803</v>
       </c>
       <c r="K3">
-        <v>1.042643443661402</v>
+        <v>1.04136238185328</v>
       </c>
       <c r="L3">
-        <v>1.029891805378386</v>
+        <v>1.02911634989352</v>
       </c>
       <c r="M3">
-        <v>1.046202077333608</v>
+        <v>1.045299445881043</v>
       </c>
       <c r="N3">
-        <v>1.013740820216382</v>
+        <v>1.014994039535593</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045138220932796</v>
+        <v>1.044423852867671</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04122022599961</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040322888959151</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.0227620502166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015186653110998</v>
+        <v>1.014147538783359</v>
       </c>
       <c r="D4">
-        <v>1.034639702501287</v>
+        <v>1.033101752421312</v>
       </c>
       <c r="E4">
-        <v>1.022504522320866</v>
+        <v>1.021470308221565</v>
       </c>
       <c r="F4">
-        <v>1.038244873795081</v>
+        <v>1.037145118444509</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053282359543588</v>
+        <v>1.052500075328563</v>
       </c>
       <c r="J4">
-        <v>1.03420970205806</v>
+        <v>1.033196144193973</v>
       </c>
       <c r="K4">
-        <v>1.044337287119971</v>
+        <v>1.042816431870229</v>
       </c>
       <c r="L4">
-        <v>1.032338717805084</v>
+        <v>1.031316331506849</v>
       </c>
       <c r="M4">
-        <v>1.047902629650391</v>
+        <v>1.046814987968795</v>
       </c>
       <c r="N4">
-        <v>1.014526159839626</v>
+        <v>1.015536408900942</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046484084251563</v>
+        <v>1.045623295350492</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042418809012907</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041351996808122</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023094648885462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016568599564457</v>
+        <v>1.015425687308545</v>
       </c>
       <c r="D5">
-        <v>1.035572316600795</v>
+        <v>1.033933924444642</v>
       </c>
       <c r="E5">
-        <v>1.023758272232488</v>
+        <v>1.022620428076451</v>
       </c>
       <c r="F5">
-        <v>1.039179035078153</v>
+        <v>1.038001800999066</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053616740947497</v>
+        <v>1.052783121827489</v>
       </c>
       <c r="J5">
-        <v>1.035113721690665</v>
+        <v>1.033998058374701</v>
       </c>
       <c r="K5">
-        <v>1.045045238723248</v>
+        <v>1.043424567679583</v>
       </c>
       <c r="L5">
-        <v>1.033360538551958</v>
+        <v>1.032235345976683</v>
       </c>
       <c r="M5">
-        <v>1.048613187570098</v>
+        <v>1.047448571620079</v>
       </c>
       <c r="N5">
-        <v>1.014855725290469</v>
+        <v>1.015764075425466</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047046438370718</v>
+        <v>1.046124730627731</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042926530997685</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041789851851795</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023234084956744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016807147995007</v>
+        <v>1.015645663999541</v>
       </c>
       <c r="D6">
-        <v>1.035735586004847</v>
+        <v>1.034079516605266</v>
       </c>
       <c r="E6">
-        <v>1.023975431031803</v>
+        <v>1.022819043107406</v>
       </c>
       <c r="F6">
-        <v>1.039340923158167</v>
+        <v>1.038150000996837</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053676164015527</v>
+        <v>1.052833508874659</v>
       </c>
       <c r="J6">
-        <v>1.035272150206516</v>
+        <v>1.034138211851782</v>
       </c>
       <c r="K6">
-        <v>1.045170768022966</v>
+        <v>1.043532527888737</v>
       </c>
       <c r="L6">
-        <v>1.033538758267778</v>
+        <v>1.032395166617646</v>
       </c>
       <c r="M6">
-        <v>1.048737530656994</v>
+        <v>1.047559314216292</v>
       </c>
       <c r="N6">
-        <v>1.014915665564938</v>
+        <v>1.015805244212455</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04714484669726</v>
+        <v>1.046212375285352</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043023999513268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041875767819573</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023259955733603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015225533623675</v>
+        <v>1.014194372032704</v>
       </c>
       <c r="D7">
-        <v>1.03467196698438</v>
+        <v>1.033139069704188</v>
       </c>
       <c r="E7">
-        <v>1.022541582911829</v>
+        <v>1.021515279496357</v>
       </c>
       <c r="F7">
-        <v>1.038272550869595</v>
+        <v>1.037177275647928</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053296908635187</v>
+        <v>1.05251719100662</v>
       </c>
       <c r="J7">
-        <v>1.034241676424352</v>
+        <v>1.033235863574273</v>
       </c>
       <c r="K7">
-        <v>1.044366326420769</v>
+        <v>1.042850460721817</v>
       </c>
       <c r="L7">
-        <v>1.032372442332641</v>
+        <v>1.031357871163415</v>
       </c>
       <c r="M7">
-        <v>1.047927148290541</v>
+        <v>1.046843932520883</v>
       </c>
       <c r="N7">
-        <v>1.014543828741253</v>
+        <v>1.015579083515842</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046503488951701</v>
+        <v>1.045646202861122</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042459381541337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041398099015057</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023107100081861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00844717781232</v>
+        <v>1.007956717660088</v>
       </c>
       <c r="D8">
-        <v>1.030112773743792</v>
+        <v>1.029094567423214</v>
       </c>
       <c r="E8">
-        <v>1.016406134905154</v>
+        <v>1.015918692997039</v>
       </c>
       <c r="F8">
-        <v>1.033707944495314</v>
+        <v>1.033011672680677</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.05163670587012</v>
+        <v>1.051119513091501</v>
       </c>
       <c r="J8">
-        <v>1.029813151116038</v>
+        <v>1.029336603444889</v>
       </c>
       <c r="K8">
-        <v>1.040899730737586</v>
+        <v>1.039894344551577</v>
       </c>
       <c r="L8">
-        <v>1.027368367467145</v>
+        <v>1.026887267827783</v>
       </c>
       <c r="M8">
-        <v>1.044449886807863</v>
+        <v>1.043762302433794</v>
       </c>
       <c r="N8">
-        <v>1.012938454105675</v>
+        <v>1.014535344982186</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043751487147319</v>
+        <v>1.043207312453581</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04001279718411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039312933315902</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022433110509292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9958559884547502</v>
+        <v>0.9963673301677262</v>
       </c>
       <c r="D9">
-        <v>1.021658434516888</v>
+        <v>1.021590590819469</v>
       </c>
       <c r="E9">
-        <v>1.005052948678281</v>
+        <v>1.005559652095758</v>
       </c>
       <c r="F9">
-        <v>1.02529211596656</v>
+        <v>1.025333715596591</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048433382668759</v>
+        <v>1.048399004852342</v>
       </c>
       <c r="J9">
-        <v>1.021555935937911</v>
+        <v>1.022049022764931</v>
       </c>
       <c r="K9">
-        <v>1.034409627032971</v>
+        <v>1.034342825380993</v>
       </c>
       <c r="L9">
-        <v>1.018064573850052</v>
+        <v>1.018563167259935</v>
       </c>
       <c r="M9">
-        <v>1.037987753818022</v>
+        <v>1.038028720345511</v>
       </c>
       <c r="N9">
-        <v>1.009928598473812</v>
+        <v>1.012482006032741</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038637147051443</v>
+        <v>1.038669569394569</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035420670251085</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035384196873087</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021136751707916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9871189500750349</v>
+        <v>0.9883964924378923</v>
       </c>
       <c r="D10">
-        <v>1.015839628386409</v>
+        <v>1.016477983875727</v>
       </c>
       <c r="E10">
-        <v>0.997220807197668</v>
+        <v>0.9984839104223404</v>
       </c>
       <c r="F10">
-        <v>1.019579970591141</v>
+        <v>1.020174816324712</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046162703851485</v>
+        <v>1.046485662395128</v>
       </c>
       <c r="J10">
-        <v>1.015853118434369</v>
+        <v>1.017078171255399</v>
       </c>
       <c r="K10">
-        <v>1.029928663936459</v>
+        <v>1.030555963132176</v>
       </c>
       <c r="L10">
-        <v>1.011640422791304</v>
+        <v>1.012880592395119</v>
       </c>
       <c r="M10">
-        <v>1.033604478318812</v>
+        <v>1.034189118222101</v>
       </c>
       <c r="N10">
-        <v>1.00787860133119</v>
+        <v>1.011220243249324</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035219703526803</v>
+        <v>1.035682381024321</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.03226917961062</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032725177272648</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.0202610684056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9841629321950418</v>
+        <v>0.985656310630773</v>
       </c>
       <c r="D11">
-        <v>1.014073900517632</v>
+        <v>1.014918523050772</v>
       </c>
       <c r="E11">
-        <v>0.994666477478392</v>
+        <v>0.996141486540238</v>
       </c>
       <c r="F11">
-        <v>1.018280641705766</v>
+        <v>1.019036510560065</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045550619619241</v>
+        <v>1.045977658354122</v>
       </c>
       <c r="J11">
-        <v>1.014209722596874</v>
+        <v>1.015638222545633</v>
       </c>
       <c r="K11">
-        <v>1.028735196279234</v>
+        <v>1.029564477146689</v>
       </c>
       <c r="L11">
-        <v>1.009689682052404</v>
+        <v>1.01113653747217</v>
       </c>
       <c r="M11">
-        <v>1.032865854366098</v>
+        <v>1.033608139076041</v>
       </c>
       <c r="N11">
-        <v>1.007545367494426</v>
+        <v>1.011209608803176</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035073093476239</v>
+        <v>1.035660231913549</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031458328762934</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032060339261179</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020147088438681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9833727277320081</v>
+        <v>0.9848747127541326</v>
       </c>
       <c r="D12">
-        <v>1.013686502501626</v>
+        <v>1.014550664244432</v>
       </c>
       <c r="E12">
-        <v>0.9940242868735364</v>
+        <v>0.995507247166887</v>
       </c>
       <c r="F12">
-        <v>1.018221430156951</v>
+        <v>1.018990991301586</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045457342309863</v>
+        <v>1.045894161034404</v>
       </c>
       <c r="J12">
-        <v>1.013897843011356</v>
+        <v>1.0153332888025</v>
       </c>
       <c r="K12">
-        <v>1.028556105681509</v>
+        <v>1.029404306841534</v>
       </c>
       <c r="L12">
-        <v>1.009266874637085</v>
+        <v>1.010721030392699</v>
       </c>
       <c r="M12">
-        <v>1.033007668870435</v>
+        <v>1.033763179212373</v>
       </c>
       <c r="N12">
-        <v>1.007631961424476</v>
+        <v>1.011342813295127</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.035512766054646</v>
+        <v>1.036110162250751</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031331704787767</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031947095225541</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020188689220593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9842316086564873</v>
+        <v>0.9855585209637696</v>
       </c>
       <c r="D13">
-        <v>1.014365464557206</v>
+        <v>1.015089659392905</v>
       </c>
       <c r="E13">
-        <v>0.9948426200239248</v>
+        <v>0.9961528735817201</v>
       </c>
       <c r="F13">
-        <v>1.019148179491125</v>
+        <v>1.019804508738671</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045778641129905</v>
+        <v>1.046144735392638</v>
       </c>
       <c r="J13">
-        <v>1.014623515487976</v>
+        <v>1.015891991527755</v>
       </c>
       <c r="K13">
-        <v>1.029179396867596</v>
+        <v>1.029890281838306</v>
       </c>
       <c r="L13">
-        <v>1.010024930289752</v>
+        <v>1.011309868438369</v>
       </c>
       <c r="M13">
-        <v>1.033874666438724</v>
+        <v>1.034519078860602</v>
       </c>
       <c r="N13">
-        <v>1.008066690623465</v>
+        <v>1.01156804013048</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03647569485383</v>
+        <v>1.036985115220187</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031769891989272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.0322879458453</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020361462656511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9855744623333549</v>
+        <v>0.9866997447808233</v>
       </c>
       <c r="D14">
-        <v>1.015320045739099</v>
+        <v>1.015877510557832</v>
       </c>
       <c r="E14">
-        <v>0.9960719839467091</v>
+        <v>0.9971834689890429</v>
       </c>
       <c r="F14">
-        <v>1.020238926340888</v>
+        <v>1.020761409380849</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046189176784697</v>
+        <v>1.046471038196388</v>
       </c>
       <c r="J14">
-        <v>1.015596454278396</v>
+        <v>1.016672953569972</v>
       </c>
       <c r="K14">
-        <v>1.029975316104125</v>
+        <v>1.0305226705506</v>
       </c>
       <c r="L14">
-        <v>1.011085425701363</v>
+        <v>1.012175736024008</v>
       </c>
       <c r="M14">
-        <v>1.034805481590812</v>
+        <v>1.035318606560559</v>
       </c>
       <c r="N14">
-        <v>1.008526094595831</v>
+        <v>1.011769385200757</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.03738515205267</v>
+        <v>1.03779073232702</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032334068301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032736627678748</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020542281173237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.986272354136658</v>
+        <v>0.9873077478580395</v>
       </c>
       <c r="D15">
-        <v>1.015797996635218</v>
+        <v>1.016279461879357</v>
       </c>
       <c r="E15">
-        <v>0.9967020421636886</v>
+        <v>0.9977249196032087</v>
       </c>
       <c r="F15">
-        <v>1.020739764561324</v>
+        <v>1.021201496121182</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046386227219907</v>
+        <v>1.046629689094619</v>
       </c>
       <c r="J15">
-        <v>1.016072963156454</v>
+        <v>1.017063891288795</v>
       </c>
       <c r="K15">
-        <v>1.030357703302676</v>
+        <v>1.030830505957958</v>
       </c>
       <c r="L15">
-        <v>1.011614147131151</v>
+        <v>1.012617701515745</v>
       </c>
       <c r="M15">
-        <v>1.035211062469637</v>
+        <v>1.035664590318086</v>
       </c>
       <c r="N15">
-        <v>1.008721421054606</v>
+        <v>1.011847316790517</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.037743319704525</v>
+        <v>1.038101784269554</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032610323367886</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032960735490452</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020620475631926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.989823728414152</v>
+        <v>0.990480387490297</v>
       </c>
       <c r="D16">
-        <v>1.018148180767788</v>
+        <v>1.018296902541947</v>
       </c>
       <c r="E16">
-        <v>0.9998711895953836</v>
+        <v>1.000520540789126</v>
       </c>
       <c r="F16">
-        <v>1.023022205741879</v>
+        <v>1.023219920476066</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047311843971106</v>
+        <v>1.047387095088571</v>
       </c>
       <c r="J16">
-        <v>1.018368895975171</v>
+        <v>1.01899884628024</v>
       </c>
       <c r="K16">
-        <v>1.03216157814496</v>
+        <v>1.032307745042432</v>
       </c>
       <c r="L16">
-        <v>1.014206085558471</v>
+        <v>1.014843752937606</v>
       </c>
       <c r="M16">
-        <v>1.036952371973552</v>
+        <v>1.037146732039463</v>
       </c>
       <c r="N16">
-        <v>1.009511042980466</v>
+        <v>1.012148666332187</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039080878295296</v>
+        <v>1.039234503317912</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03388890355743</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034008659013907</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020947742556668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9918462725439742</v>
+        <v>0.9923317697297751</v>
       </c>
       <c r="D17">
-        <v>1.019452704774482</v>
+        <v>1.019442420086153</v>
       </c>
       <c r="E17">
-        <v>1.001661581264231</v>
+        <v>1.002141954113844</v>
       </c>
       <c r="F17">
-        <v>1.024197957492874</v>
+        <v>1.02427096612301</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047803892678406</v>
+        <v>1.047798686743403</v>
       </c>
       <c r="J17">
-        <v>1.019621433106809</v>
+        <v>1.020087849855521</v>
       </c>
       <c r="K17">
-        <v>1.033128042932498</v>
+        <v>1.033117929816691</v>
       </c>
       <c r="L17">
-        <v>1.015640539530098</v>
+        <v>1.016112531059158</v>
       </c>
       <c r="M17">
-        <v>1.037794606699618</v>
+        <v>1.037866411978902</v>
       </c>
       <c r="N17">
-        <v>1.009877445786715</v>
+        <v>1.012306253695726</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039617425959914</v>
+        <v>1.03967418757717</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034574821530354</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034584322209564</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02110597576723</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9927133099177347</v>
+        <v>0.9931788895277671</v>
       </c>
       <c r="D18">
-        <v>1.019941967645905</v>
+        <v>1.019900513165038</v>
       </c>
       <c r="E18">
-        <v>1.002398215500367</v>
+        <v>1.002859028065766</v>
       </c>
       <c r="F18">
-        <v>1.024468805865643</v>
+        <v>1.024519132117471</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047952367170915</v>
+        <v>1.047931379027968</v>
       </c>
       <c r="J18">
-        <v>1.020054454427815</v>
+        <v>1.020502090238475</v>
       </c>
       <c r="K18">
-        <v>1.033425131662891</v>
+        <v>1.033384357246151</v>
       </c>
       <c r="L18">
-        <v>1.016175680627445</v>
+        <v>1.016628592778015</v>
       </c>
       <c r="M18">
-        <v>1.037878131998697</v>
+        <v>1.037927642081561</v>
       </c>
       <c r="N18">
-        <v>1.009889018339404</v>
+        <v>1.01229679539899</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039445485077573</v>
+        <v>1.039484630663558</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034773211385691</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034759899458565</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021114903759754</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9925461352004784</v>
+        <v>0.9931162283770781</v>
       </c>
       <c r="D19">
-        <v>1.019704076031522</v>
+        <v>1.019739742875607</v>
       </c>
       <c r="E19">
-        <v>1.00219153197074</v>
+        <v>1.002755838394175</v>
       </c>
       <c r="F19">
-        <v>1.023920300537406</v>
+        <v>1.024033890268347</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047797889939596</v>
+        <v>1.04781594892936</v>
       </c>
       <c r="J19">
-        <v>1.019757435245508</v>
+        <v>1.020305678202748</v>
       </c>
       <c r="K19">
-        <v>1.033128375960682</v>
+        <v>1.033163460518318</v>
       </c>
       <c r="L19">
-        <v>1.01590820268849</v>
+        <v>1.016462882408067</v>
       </c>
       <c r="M19">
-        <v>1.037276128361883</v>
+        <v>1.037387883390354</v>
       </c>
       <c r="N19">
-        <v>1.009600438571375</v>
+        <v>1.01212691341019</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038643478926521</v>
+        <v>1.038731867991475</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034569804571977</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034610751941605</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020992835574851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,105 +1555,123 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9894521332289781</v>
+        <v>0.9904779850822448</v>
       </c>
       <c r="D20">
-        <v>1.017407792078037</v>
+        <v>1.01782547114554</v>
       </c>
       <c r="E20">
-        <v>0.9993154114754039</v>
+        <v>1.000330280503169</v>
       </c>
       <c r="F20">
-        <v>1.021109218001639</v>
+        <v>1.021528716839494</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046787028370745</v>
+        <v>1.046998426904664</v>
       </c>
       <c r="J20">
-        <v>1.017395801209372</v>
+        <v>1.018380964153115</v>
       </c>
       <c r="K20">
-        <v>1.031151300326949</v>
+        <v>1.031561959250958</v>
       </c>
       <c r="L20">
-        <v>1.013370309237766</v>
+        <v>1.014367324811656</v>
       </c>
       <c r="M20">
-        <v>1.03479077222339</v>
+        <v>1.035203286022053</v>
       </c>
       <c r="N20">
-        <v>1.008453432703142</v>
+        <v>1.011488693597592</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.03614794347728</v>
+        <v>1.036474406123361</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033175874890255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033482767228265</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020499124058361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9826627753646571</v>
+        <v>0.984506587828897</v>
       </c>
       <c r="D21">
-        <v>1.012854323641429</v>
+        <v>1.013977935712354</v>
       </c>
       <c r="E21">
-        <v>0.9932249281073487</v>
+        <v>0.9950457564115668</v>
       </c>
       <c r="F21">
-        <v>1.016566730123484</v>
+        <v>1.017550177027152</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044963875575909</v>
+        <v>1.045531908784145</v>
       </c>
       <c r="J21">
-        <v>1.012903678361633</v>
+        <v>1.014666674655083</v>
       </c>
       <c r="K21">
-        <v>1.027596191664349</v>
+        <v>1.028699244072102</v>
       </c>
       <c r="L21">
-        <v>1.008335803256314</v>
+        <v>1.01012160029009</v>
       </c>
       <c r="M21">
-        <v>1.031240894194237</v>
+        <v>1.032206513405489</v>
       </c>
       <c r="N21">
-        <v>1.006788634753702</v>
+        <v>1.010883757271535</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.033297426132377</v>
+        <v>1.034061656317554</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030665526662466</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031462316443887</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019836699071953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9783112241753309</v>
+        <v>0.9806824503291122</v>
       </c>
       <c r="D22">
-        <v>1.009948717166555</v>
+        <v>1.011526793868079</v>
       </c>
       <c r="E22">
-        <v>0.9893330367742168</v>
+        <v>0.9916719047231468</v>
       </c>
       <c r="F22">
-        <v>1.013706171468282</v>
+        <v>1.015053119163392</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043787537616874</v>
+        <v>1.044584745324967</v>
       </c>
       <c r="J22">
-        <v>1.010033783397803</v>
+        <v>1.012294564532592</v>
       </c>
       <c r="K22">
-        <v>1.025325631214157</v>
+        <v>1.026873309750381</v>
       </c>
       <c r="L22">
-        <v>1.00511881196345</v>
+        <v>1.007410168033342</v>
       </c>
       <c r="M22">
-        <v>1.029010910075421</v>
+        <v>1.03033215497713</v>
       </c>
       <c r="N22">
-        <v>1.005731168706313</v>
+        <v>1.010495980490492</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.031532523125327</v>
+        <v>1.032578212320375</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.02904655065916</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030156439218973</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019416146860902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9806079985915791</v>
+        <v>0.982680031826029</v>
       </c>
       <c r="D23">
-        <v>1.011476340261955</v>
+        <v>1.012799216642943</v>
       </c>
       <c r="E23">
-        <v>0.9913843753788889</v>
+        <v>0.9934294421675458</v>
       </c>
       <c r="F23">
-        <v>1.015213586588342</v>
+        <v>1.016355690138893</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044405521877157</v>
+        <v>1.04507406354016</v>
       </c>
       <c r="J23">
-        <v>1.011542244150463</v>
+        <v>1.01352080265857</v>
       </c>
       <c r="K23">
-        <v>1.026516198916431</v>
+        <v>1.027814271823059</v>
       </c>
       <c r="L23">
-        <v>1.006811644342625</v>
+        <v>1.008816337821802</v>
       </c>
       <c r="M23">
-        <v>1.030183590556874</v>
+        <v>1.031304480144755</v>
       </c>
       <c r="N23">
-        <v>1.006279975539006</v>
+        <v>1.010644113291805</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.032460632221695</v>
+        <v>1.033347750656636</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.029878643568497</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030811106599208</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019626415811583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9894402813812111</v>
+        <v>0.9904831238122114</v>
       </c>
       <c r="D24">
-        <v>1.017372542588827</v>
+        <v>1.017802097397595</v>
       </c>
       <c r="E24">
-        <v>0.9992934999139439</v>
+        <v>1.000325201763336</v>
       </c>
       <c r="F24">
-        <v>1.021037906038137</v>
+        <v>1.021467403895531</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046760970675223</v>
+        <v>1.046978383185894</v>
       </c>
       <c r="J24">
-        <v>1.017350967185027</v>
+        <v>1.01835250466138</v>
       </c>
       <c r="K24">
-        <v>1.031101294112336</v>
+        <v>1.031523637901949</v>
       </c>
       <c r="L24">
-        <v>1.013333033855446</v>
+        <v>1.014346608900114</v>
       </c>
       <c r="M24">
-        <v>1.034705377557945</v>
+        <v>1.035127731852857</v>
       </c>
       <c r="N24">
-        <v>1.0084038072191</v>
+        <v>1.011457299574993</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036039354853749</v>
+        <v>1.03637362196692</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033113013281378</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033425509278245</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020475220934538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.999223488607498</v>
+        <v>0.9994420176913621</v>
       </c>
       <c r="D25">
-        <v>1.023925457941601</v>
+        <v>1.023587030068512</v>
       </c>
       <c r="E25">
-        <v>1.00808665766365</v>
+        <v>1.008303380069477</v>
       </c>
       <c r="F25">
-        <v>1.027536781140904</v>
+        <v>1.027366727875021</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049310332416744</v>
+        <v>1.049138737743204</v>
       </c>
       <c r="J25">
-        <v>1.023777013747043</v>
+        <v>1.023988174769401</v>
       </c>
       <c r="K25">
-        <v>1.036163377705277</v>
+        <v>1.035829898571732</v>
       </c>
       <c r="L25">
-        <v>1.020560722443538</v>
+        <v>1.02077414987204</v>
       </c>
       <c r="M25">
-        <v>1.039722150820726</v>
+        <v>1.039554561573355</v>
       </c>
       <c r="N25">
-        <v>1.010749730188407</v>
+        <v>1.013002138729041</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.040009808237014</v>
+        <v>1.039877172481744</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036689305383634</v>
+        <v>1.036467061249634</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021489568322956</v>
       </c>
     </row>
   </sheetData>
